--- a/FileMau/Tong hop _ Report.xlsx
+++ b/FileMau/Tong hop _ Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11580"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="440">
   <si>
     <t>STT</t>
   </si>
@@ -69,13 +69,16 @@
     <t>Hanh chinh</t>
   </si>
   <si>
+    <t>locth5@fe.edu.vn</t>
+  </si>
+  <si>
     <t>PHAM THI Y VAN</t>
   </si>
   <si>
     <t>TS FPL HCM</t>
   </si>
   <si>
-    <t>locth5@fe.edu.vn</t>
+    <t>quynhttp4@fe.edu.vn</t>
   </si>
   <si>
     <t>HUYNH THI THANH</t>
@@ -2628,14 +2631,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2662,6 +2662,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2788,12 +2791,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="Report-style" pivot="0" count="3" xr9:uid="{A651C30F-7163-48A0-86C5-124478C88AB7}">
+    <tableStyle name="Report-style" pivot="0" count="3" xr9:uid="{09662C7E-284A-41A2-AD11-5C229F5D0FE9}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Report-style 2" pivot="0" count="2" xr9:uid="{4E1AFB0E-45CB-4005-8102-CC934B3E3BBB}">
+    <tableStyle name="Report-style 2" pivot="0" count="2" xr9:uid="{6AB2918A-12C7-4285-B04C-A4031C592308}">
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
@@ -3054,7 +3057,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15" customHeight="1"/>
@@ -3154,7 +3157,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E3" s="70" t="s">
         <v>8</v>
@@ -3186,13 +3189,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="70" t="s">
         <v>8</v>
@@ -3224,13 +3227,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="75" t="s">
-        <v>15</v>
+      <c r="D5" s="73" t="s">
+        <v>16</v>
       </c>
       <c r="E5" s="70" t="s">
         <v>8</v>
@@ -3262,12 +3265,12 @@
         <v>4</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="75" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="70" t="s">
@@ -3296,20 +3299,20 @@
       <c r="Z6" s="71"/>
     </row>
     <row r="7" ht="19.5" customHeight="1" spans="1:26">
-      <c r="A7" s="77">
+      <c r="A7" s="76">
         <v>5</v>
       </c>
-      <c r="B7" s="78" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="79" t="s">
+      <c r="B7" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="C7" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="80" t="s">
-        <v>20</v>
+      <c r="E7" s="79" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="71"/>
       <c r="G7" s="71"/>
@@ -3338,16 +3341,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="81" t="s">
-        <v>23</v>
+      <c r="E8" s="80" t="s">
+        <v>24</v>
       </c>
       <c r="F8" s="71"/>
       <c r="G8" s="71"/>
@@ -3372,20 +3375,20 @@
       <c r="Z8" s="71"/>
     </row>
     <row r="9" ht="19.5" customHeight="1" spans="1:26">
-      <c r="A9" s="82">
+      <c r="A9" s="81">
         <v>7</v>
       </c>
-      <c r="B9" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="79" t="s">
+      <c r="B9" s="77" t="s">
         <v>25</v>
       </c>
+      <c r="C9" s="78" t="s">
+        <v>26</v>
+      </c>
       <c r="D9" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="83" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="E9" s="82" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="71"/>
       <c r="G9" s="71"/>
@@ -3410,18 +3413,18 @@
       <c r="Z9" s="71"/>
     </row>
     <row r="10" ht="19.5" customHeight="1" spans="1:26">
-      <c r="A10" s="84"/>
-      <c r="B10" s="78" t="s">
+      <c r="A10" s="83"/>
+      <c r="B10" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="82" t="s">
         <v>27</v>
-      </c>
-      <c r="C10" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="83" t="s">
-        <v>26</v>
       </c>
       <c r="F10" s="71"/>
       <c r="G10" s="71"/>
@@ -3446,18 +3449,18 @@
       <c r="Z10" s="71"/>
     </row>
     <row r="11" ht="19.5" customHeight="1" spans="1:26">
-      <c r="A11" s="84"/>
-      <c r="B11" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="83" t="s">
+      <c r="A11" s="83"/>
+      <c r="B11" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="78" t="s">
         <v>26</v>
+      </c>
+      <c r="D11" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="82" t="s">
+        <v>27</v>
       </c>
       <c r="F11" s="71"/>
       <c r="G11" s="71"/>
@@ -3483,17 +3486,17 @@
     </row>
     <row r="12" ht="19.5" customHeight="1" spans="1:26">
       <c r="A12" s="72"/>
-      <c r="B12" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="83" t="s">
+      <c r="B12" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="78" t="s">
         <v>26</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="82" t="s">
+        <v>27</v>
       </c>
       <c r="F12" s="71"/>
       <c r="G12" s="71"/>
@@ -3522,16 +3525,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="76" t="s">
-        <v>13</v>
+        <v>32</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E13" s="70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="71"/>
@@ -3556,18 +3559,18 @@
       <c r="Z13" s="71"/>
     </row>
     <row r="14" ht="19.5" customHeight="1" spans="1:26">
-      <c r="A14" s="84"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="70" t="s">
         <v>33</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>32</v>
       </c>
       <c r="F14" s="71"/>
       <c r="G14" s="71"/>
@@ -3592,18 +3595,18 @@
       <c r="Z14" s="71"/>
     </row>
     <row r="15" ht="19.5" customHeight="1" spans="1:26">
-      <c r="A15" s="84"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="76" t="s">
-        <v>13</v>
+        <v>36</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="71"/>
@@ -3628,18 +3631,18 @@
       <c r="Z15" s="71"/>
     </row>
     <row r="16" ht="19.5" customHeight="1" spans="1:26">
-      <c r="A16" s="84"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="76" t="s">
-        <v>13</v>
+        <v>38</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>11</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="71"/>
       <c r="G16" s="71"/>
@@ -3666,16 +3669,16 @@
     <row r="17" ht="19.5" customHeight="1" spans="1:26">
       <c r="A17" s="72"/>
       <c r="B17" s="67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="73" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="84" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="71"/>
       <c r="G17" s="71"/>
@@ -3700,20 +3703,20 @@
       <c r="Z17" s="71"/>
     </row>
     <row r="18" ht="19.5" customHeight="1" spans="1:26">
-      <c r="A18" s="82">
+      <c r="A18" s="81">
         <v>9</v>
       </c>
-      <c r="B18" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="79" t="s">
+      <c r="B18" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="76" t="s">
+      <c r="C18" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="83" t="s">
-        <v>41</v>
+      <c r="E18" s="82" t="s">
+        <v>42</v>
       </c>
       <c r="F18" s="71"/>
       <c r="G18" s="71"/>
@@ -3739,17 +3742,17 @@
     </row>
     <row r="19" ht="19.5" customHeight="1" spans="1:26">
       <c r="A19" s="72"/>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="84" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="82" t="s">
         <v>42</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="83" t="s">
-        <v>41</v>
       </c>
       <c r="F19" s="71"/>
       <c r="G19" s="71"/>
@@ -3778,16 +3781,16 @@
         <v>10</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="81" t="s">
-        <v>45</v>
+      <c r="E20" s="80" t="s">
+        <v>46</v>
       </c>
       <c r="F20" s="71"/>
       <c r="G20" s="71"/>
@@ -3812,20 +3815,20 @@
       <c r="Z20" s="71"/>
     </row>
     <row r="21" ht="19.5" customHeight="1" spans="1:26">
-      <c r="A21" s="77">
+      <c r="A21" s="76">
         <v>11</v>
       </c>
-      <c r="B21" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="79" t="s">
+      <c r="B21" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="80" t="s">
+      <c r="C21" s="78" t="s">
         <v>48</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="79" t="s">
+        <v>49</v>
       </c>
       <c r="F21" s="71"/>
       <c r="G21" s="71"/>
@@ -3854,16 +3857,16 @@
         <v>12</v>
       </c>
       <c r="B22" s="86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" s="87" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="75" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="88" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" s="71"/>
       <c r="G22" s="71"/>
@@ -3892,16 +3895,16 @@
         <v>13</v>
       </c>
       <c r="B23" s="90" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="75" t="s">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="D23" s="73" t="s">
+        <v>16</v>
       </c>
       <c r="E23" s="92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F23" s="71"/>
       <c r="G23" s="71"/>
@@ -10312,23 +10315,24 @@
   <hyperlinks>
     <hyperlink ref="D18" r:id="rId1" display="nmhien3007@gmail.com"/>
     <hyperlink ref="D22" r:id="rId1" display="nmhien3007@gmail.com"/>
-    <hyperlink ref="D4" r:id="rId2" display="locth5@fe.edu.vn" tooltip="mailto:locth5@fe.edu.vn"/>
+    <hyperlink ref="D4" r:id="rId2" display="quynhttp4@fe.edu.vn" tooltip="mailto:quynhttp4@fe.edu.vn"/>
     <hyperlink ref="D6" r:id="rId1" display="nmhien3007@gmail.com"/>
     <hyperlink ref="D10" r:id="rId1" display="nmhien3007@gmail.com"/>
-    <hyperlink ref="D14" r:id="rId2" display="locth5@fe.edu.vn" tooltip="mailto:locth5@fe.edu.vn"/>
+    <hyperlink ref="D14" r:id="rId3" display="locth5@fe.edu.vn" tooltip="mailto:locth5@fe.edu.vn"/>
     <hyperlink ref="D8" r:id="rId1" display="nmhien3007@gmail.com"/>
-    <hyperlink ref="D12" r:id="rId2" display="locth5@fe.edu.vn" tooltip="mailto:locth5@fe.edu.vn"/>
-    <hyperlink ref="D16" r:id="rId2" display="locth5@fe.edu.vn" tooltip="mailto:locth5@fe.edu.vn"/>
+    <hyperlink ref="D12" r:id="rId3" display="locth5@fe.edu.vn" tooltip="mailto:locth5@fe.edu.vn"/>
+    <hyperlink ref="D16" r:id="rId3" display="locth5@fe.edu.vn" tooltip="mailto:locth5@fe.edu.vn"/>
     <hyperlink ref="D20" r:id="rId1" display="nmhien3007@gmail.com"/>
-    <hyperlink ref="D15" r:id="rId2" display="locth5@fe.edu.vn" tooltip="mailto:locth5@fe.edu.vn"/>
+    <hyperlink ref="D15" r:id="rId3" display="locth5@fe.edu.vn" tooltip="mailto:locth5@fe.edu.vn"/>
     <hyperlink ref="D2" r:id="rId1" display="nmhien3007@gmail.com" tooltip="mailto:nmhien3007@gmail.com"/>
-    <hyperlink ref="D13" r:id="rId2" display="locth5@fe.edu.vn" tooltip="mailto:locth5@fe.edu.vn"/>
+    <hyperlink ref="D13" r:id="rId3" display="locth5@fe.edu.vn" tooltip="mailto:locth5@fe.edu.vn"/>
     <hyperlink ref="D9" r:id="rId1" display="locth5@fe.edu.vn"/>
-    <hyperlink ref="D5" r:id="rId3" display="hiennm22@fe.edu.vn"/>
-    <hyperlink ref="D11" r:id="rId3" display="hiennm22@fe.edu.vn"/>
-    <hyperlink ref="D21" r:id="rId3" display="hiennm22@fe.edu.vn"/>
-    <hyperlink ref="D23" r:id="rId3" display="hiennm22@fe.edu.vn"/>
+    <hyperlink ref="D5" r:id="rId4" display="hiennm22@fe.edu.vn"/>
+    <hyperlink ref="D11" r:id="rId4" display="hiennm22@fe.edu.vn"/>
+    <hyperlink ref="D21" r:id="rId4" display="hiennm22@fe.edu.vn"/>
+    <hyperlink ref="D23" r:id="rId4" display="hiennm22@fe.edu.vn"/>
     <hyperlink ref="D7" r:id="rId1" display="nmhien3007@gmail.com"/>
+    <hyperlink ref="D3" r:id="rId3" display="locth5@fe.edu.vn"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -10373,102 +10377,102 @@
   <sheetData>
     <row r="1" ht="13.5" customHeight="1" spans="2:31">
       <c r="B1" s="46" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J1" s="47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L1" s="47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M1" s="47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N1" s="47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O1" s="47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P1" s="47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q1" s="47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="R1" s="47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S1" s="47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T1" s="47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U1" s="47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V1" s="47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W1" s="47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X1" s="47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y1" s="47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z1" s="47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA1" s="47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AB1" s="47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AC1" s="47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD1" s="47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE1" s="57" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="2:31">
       <c r="B2" s="48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
@@ -10501,10 +10505,10 @@
     </row>
     <row r="3" ht="13.5" customHeight="1" spans="2:31">
       <c r="B3" s="51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3" s="53"/>
       <c r="E3" s="53"/>
@@ -10537,10 +10541,10 @@
     </row>
     <row r="4" ht="13.5" customHeight="1" spans="2:31">
       <c r="B4" s="48" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
@@ -10573,10 +10577,10 @@
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="2:31">
       <c r="B5" s="51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
@@ -10609,7 +10613,7 @@
     </row>
     <row r="6" ht="13.5" customHeight="1" spans="2:31">
       <c r="B6" s="48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" s="49">
         <v>35</v>
@@ -10645,10 +10649,10 @@
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="2:31">
       <c r="B7" s="51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
@@ -10713,165 +10717,165 @@
     </row>
     <row r="9" ht="13.5" customHeight="1" spans="1:31">
       <c r="A9" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F9" s="52" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I9" s="52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J9" s="52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K9" s="52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L9" s="52" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" s="52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N9" s="52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O9" s="52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P9" s="52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q9" s="52" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R9" s="52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="S9" s="52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="T9" s="52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="U9" s="52" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="V9" s="52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="W9" s="52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="X9" s="52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y9" s="52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Z9" s="52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA9" s="52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AB9" s="52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AC9" s="52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD9" s="52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AE9" s="60" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="1:31">
       <c r="A10" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B10" s="48">
         <v>1</v>
       </c>
       <c r="C10" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="J10" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="L10" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="I10" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="K10" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="49" t="s">
-        <v>123</v>
-      </c>
       <c r="M10" s="49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N10" s="55">
         <v>45667</v>
       </c>
       <c r="O10" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P10" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R10" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S10" s="49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="T10" s="49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U10" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V10" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W10" s="49">
         <v>56000</v>
@@ -10898,75 +10902,75 @@
         <v>58000</v>
       </c>
       <c r="AE10" s="61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" spans="1:31">
       <c r="A11" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B11" s="51">
         <v>2</v>
       </c>
       <c r="C11" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="L11" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="J11" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="K11" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="L11" s="52" t="s">
-        <v>137</v>
-      </c>
       <c r="M11" s="52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N11" s="56">
         <v>45694</v>
       </c>
       <c r="O11" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q11" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R11" s="52" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S11" s="52" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="T11" s="52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U11" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V11" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W11" s="52">
         <v>64000</v>
@@ -10993,75 +10997,75 @@
         <v>63000</v>
       </c>
       <c r="AE11" s="60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="1:31">
       <c r="A12" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B12" s="48">
         <v>3</v>
       </c>
       <c r="C12" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="L12" s="49" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="H12" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="J12" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="K12" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="L12" s="49" t="s">
-        <v>144</v>
-      </c>
       <c r="M12" s="49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N12" s="55">
         <v>45809</v>
       </c>
       <c r="O12" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P12" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q12" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R12" s="49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S12" s="49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="T12" s="49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U12" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V12" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W12" s="49">
         <v>30000</v>
@@ -11088,75 +11092,75 @@
         <v>32000</v>
       </c>
       <c r="AE12" s="61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1" spans="1:31">
       <c r="A13" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B13" s="51">
         <v>4</v>
       </c>
       <c r="C13" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F13" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="H13" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I13" s="52" t="s">
-        <v>148</v>
-      </c>
-      <c r="J13" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="K13" s="52" t="s">
-        <v>154</v>
-      </c>
-      <c r="L13" s="52" t="s">
-        <v>152</v>
-      </c>
       <c r="M13" s="52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N13" s="56">
         <v>45719</v>
       </c>
       <c r="O13" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P13" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R13" s="52" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="S13" s="52" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T13" s="52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U13" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V13" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W13" s="52">
         <v>47000</v>
@@ -11183,75 +11187,75 @@
         <v>47000</v>
       </c>
       <c r="AE13" s="60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" spans="1:31">
       <c r="A14" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B14" s="48">
         <v>5</v>
       </c>
       <c r="C14" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="D14" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="J14" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="K14" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="L14" s="49" t="s">
-        <v>157</v>
-      </c>
       <c r="M14" s="49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N14" s="49" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O14" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P14" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R14" s="49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="S14" s="49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="T14" s="49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U14" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V14" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W14" s="49">
         <v>42000</v>
@@ -11278,75 +11282,75 @@
         <v>43000</v>
       </c>
       <c r="AE14" s="61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" spans="1:31">
       <c r="A15" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B15" s="51">
         <v>6</v>
       </c>
       <c r="C15" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="D15" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="J15" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="K15" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="L15" s="52" t="s">
-        <v>163</v>
-      </c>
       <c r="M15" s="52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N15" s="56">
         <v>45902</v>
       </c>
       <c r="O15" s="52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P15" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q15" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R15" s="52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="S15" s="52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T15" s="52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U15" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V15" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W15" s="52">
         <v>45000</v>
@@ -11373,75 +11377,75 @@
         <v>44000</v>
       </c>
       <c r="AE15" s="60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1" spans="1:31">
       <c r="A16" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" s="48">
         <v>7</v>
       </c>
       <c r="C16" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="J16" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" s="49" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F16" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="H16" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="I16" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="J16" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="K16" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="L16" s="49" t="s">
-        <v>171</v>
-      </c>
       <c r="M16" s="49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N16" s="55">
         <v>45785</v>
       </c>
       <c r="O16" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P16" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R16" s="49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="S16" s="49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="T16" s="49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U16" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V16" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W16" s="49">
         <v>81000</v>
@@ -11468,75 +11472,75 @@
         <v>64000</v>
       </c>
       <c r="AE16" s="61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1" spans="1:31">
       <c r="A17" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B17" s="51">
         <v>8</v>
       </c>
       <c r="C17" s="52" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F17" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="J17" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="K17" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="L17" s="52" t="s">
-        <v>177</v>
-      </c>
       <c r="M17" s="52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N17" s="56">
         <v>45739</v>
       </c>
       <c r="O17" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P17" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q17" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R17" s="52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S17" s="52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T17" s="52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U17" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V17" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W17" s="52">
         <v>240000</v>
@@ -11563,75 +11567,75 @@
         <v>222000</v>
       </c>
       <c r="AE17" s="60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1" spans="1:31">
       <c r="A18" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B18" s="48">
         <v>9</v>
       </c>
       <c r="C18" s="49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="D18" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>173</v>
-      </c>
-      <c r="H18" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="J18" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="K18" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="L18" s="49" t="s">
-        <v>183</v>
-      </c>
       <c r="M18" s="49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N18" s="55">
         <v>45922</v>
       </c>
       <c r="O18" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P18" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q18" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R18" s="49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S18" s="49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="T18" s="49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U18" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V18" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W18" s="49">
         <v>228000</v>
@@ -11658,75 +11662,75 @@
         <v>234000</v>
       </c>
       <c r="AE18" s="61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1" spans="1:31">
       <c r="A19" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B19" s="51">
         <v>10</v>
       </c>
       <c r="C19" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="H19" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I19" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="J19" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="K19" s="52" t="s">
-        <v>191</v>
-      </c>
-      <c r="L19" s="52" t="s">
-        <v>189</v>
-      </c>
       <c r="M19" s="52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N19" s="56">
         <v>45783</v>
       </c>
       <c r="O19" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q19" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R19" s="52" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S19" s="52" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T19" s="52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U19" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V19" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W19" s="52">
         <v>68000</v>
@@ -11753,75 +11757,75 @@
         <v>65000</v>
       </c>
       <c r="AE19" s="60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1" spans="1:31">
       <c r="A20" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B20" s="48">
         <v>11</v>
       </c>
       <c r="C20" s="49" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="J20" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="L20" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="D20" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="I20" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="J20" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="L20" s="49" t="s">
-        <v>194</v>
-      </c>
       <c r="M20" s="49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N20" s="55">
         <v>45694</v>
       </c>
       <c r="O20" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q20" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R20" s="49" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S20" s="49" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T20" s="49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U20" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V20" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W20" s="49">
         <v>65000</v>
@@ -11848,75 +11852,75 @@
         <v>64000</v>
       </c>
       <c r="AE20" s="61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1" spans="1:31">
       <c r="A21" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B21" s="51">
         <v>12</v>
       </c>
       <c r="C21" s="52" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="L21" s="52" t="s">
         <v>199</v>
       </c>
-      <c r="D21" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I21" s="52" t="s">
-        <v>200</v>
-      </c>
-      <c r="J21" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="K21" s="52" t="s">
-        <v>201</v>
-      </c>
-      <c r="L21" s="52" t="s">
-        <v>198</v>
-      </c>
       <c r="M21" s="52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N21" s="56">
         <v>45783</v>
       </c>
       <c r="O21" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P21" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q21" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R21" s="52" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S21" s="52" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="T21" s="52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U21" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V21" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W21" s="52">
         <v>76000</v>
@@ -11943,75 +11947,75 @@
         <v>60000</v>
       </c>
       <c r="AE21" s="60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1" spans="1:31">
       <c r="A22" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B22" s="48">
         <v>13</v>
       </c>
       <c r="C22" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="J22" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="L22" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="D22" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="49" t="s">
-        <v>206</v>
-      </c>
-      <c r="F22" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" s="49" t="s">
-        <v>207</v>
-      </c>
-      <c r="H22" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" s="49" t="s">
-        <v>208</v>
-      </c>
-      <c r="J22" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="K22" s="49" t="s">
-        <v>209</v>
-      </c>
-      <c r="L22" s="49" t="s">
-        <v>204</v>
-      </c>
       <c r="M22" s="49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N22" s="55">
         <v>45907</v>
       </c>
       <c r="O22" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P22" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R22" s="49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="S22" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="T22" s="49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U22" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V22" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W22" s="49">
         <v>82000</v>
@@ -12038,75 +12042,75 @@
         <v>78000</v>
       </c>
       <c r="AE22" s="61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1" spans="1:31">
       <c r="A23" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B23" s="51">
         <v>14</v>
       </c>
       <c r="C23" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="J23" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="K23" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="L23" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="D23" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F23" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" s="52" t="s">
-        <v>214</v>
-      </c>
-      <c r="J23" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="K23" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="L23" s="52" t="s">
-        <v>212</v>
-      </c>
       <c r="M23" s="52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N23" s="56">
         <v>45812</v>
       </c>
       <c r="O23" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P23" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R23" s="52" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="S23" s="52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T23" s="52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U23" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V23" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W23" s="52">
         <v>48000</v>
@@ -12133,75 +12137,75 @@
         <v>49000</v>
       </c>
       <c r="AE23" s="60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1" spans="1:31">
       <c r="A24" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B24" s="48">
         <v>15</v>
       </c>
       <c r="C24" s="49" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I24" s="49" t="s">
+        <v>221</v>
+      </c>
+      <c r="J24" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="K24" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="L24" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="D24" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F24" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="H24" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="I24" s="49" t="s">
-        <v>220</v>
-      </c>
-      <c r="J24" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="K24" s="49" t="s">
-        <v>221</v>
-      </c>
-      <c r="L24" s="49" t="s">
-        <v>218</v>
-      </c>
       <c r="M24" s="49" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N24" s="55">
         <v>45661</v>
       </c>
       <c r="O24" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P24" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q24" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R24" s="49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="S24" s="49" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="T24" s="49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U24" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V24" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W24" s="49">
         <v>77000</v>
@@ -12228,75 +12232,75 @@
         <v>73000</v>
       </c>
       <c r="AE24" s="61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1" spans="1:31">
       <c r="A25" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B25" s="51">
         <v>16</v>
       </c>
       <c r="C25" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="J25" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="K25" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="L25" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="D25" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F25" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="52" t="s">
-        <v>227</v>
-      </c>
-      <c r="H25" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I25" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="J25" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="K25" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="L25" s="52" t="s">
-        <v>225</v>
-      </c>
       <c r="M25" s="52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N25" s="56">
         <v>45692</v>
       </c>
       <c r="O25" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P25" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q25" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R25" s="52" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="S25" s="52" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T25" s="52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U25" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V25" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W25" s="52">
         <v>49000</v>
@@ -12323,75 +12327,75 @@
         <v>50000</v>
       </c>
       <c r="AE25" s="60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1" spans="1:31">
       <c r="A26" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B26" s="48">
         <v>17</v>
       </c>
       <c r="C26" s="49" t="s">
+        <v>232</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="J26" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="L26" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="D26" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="H26" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="I26" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="J26" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="K26" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="L26" s="49" t="s">
-        <v>230</v>
-      </c>
       <c r="M26" s="49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N26" s="55">
         <v>45676</v>
       </c>
       <c r="O26" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P26" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q26" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R26" s="49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="S26" s="49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="T26" s="49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U26" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V26" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W26" s="49">
         <v>73000</v>
@@ -12418,75 +12422,75 @@
         <v>70000</v>
       </c>
       <c r="AE26" s="61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1" spans="1:31">
       <c r="A27" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B27" s="51">
         <v>18</v>
       </c>
       <c r="C27" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="J27" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="K27" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="D27" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="F27" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I27" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="J27" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="K27" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="L27" s="52" t="s">
-        <v>237</v>
-      </c>
       <c r="M27" s="52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N27" s="56">
         <v>45845</v>
       </c>
       <c r="O27" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P27" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q27" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R27" s="52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="S27" s="52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T27" s="52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U27" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V27" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W27" s="52">
         <v>63000</v>
@@ -12513,75 +12517,75 @@
         <v>52000</v>
       </c>
       <c r="AE27" s="60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1" spans="1:31">
       <c r="A28" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B28" s="48">
         <v>19</v>
       </c>
       <c r="C28" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I28" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="J28" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="L28" s="49" t="s">
         <v>242</v>
       </c>
-      <c r="D28" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="H28" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="I28" s="49" t="s">
-        <v>243</v>
-      </c>
-      <c r="J28" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="K28" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="L28" s="49" t="s">
-        <v>241</v>
-      </c>
       <c r="M28" s="49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N28" s="49" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O28" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P28" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q28" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R28" s="49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="S28" s="49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="T28" s="49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U28" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V28" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W28" s="49">
         <v>26000</v>
@@ -12608,75 +12612,75 @@
         <v>29000</v>
       </c>
       <c r="AE28" s="61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:31">
       <c r="A29" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B29" s="51">
         <v>20</v>
       </c>
       <c r="C29" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="H29" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="K29" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" s="52" t="s">
         <v>248</v>
       </c>
-      <c r="D29" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F29" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="H29" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I29" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="J29" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="K29" s="52" t="s">
-        <v>249</v>
-      </c>
-      <c r="L29" s="52" t="s">
-        <v>247</v>
-      </c>
       <c r="M29" s="52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N29" s="52" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O29" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P29" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q29" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R29" s="52" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="S29" s="52" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="T29" s="52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U29" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V29" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W29" s="52">
         <v>42000</v>
@@ -12703,75 +12707,75 @@
         <v>42000</v>
       </c>
       <c r="AE29" s="60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:31">
       <c r="A30" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B30" s="48">
         <v>21</v>
       </c>
       <c r="C30" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="H30" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="49" t="s">
+        <v>256</v>
+      </c>
+      <c r="J30" s="49" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" s="49" t="s">
+        <v>258</v>
+      </c>
+      <c r="L30" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="D30" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F30" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="49" t="s">
-        <v>254</v>
-      </c>
-      <c r="H30" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="I30" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="J30" s="49" t="s">
-        <v>256</v>
-      </c>
-      <c r="K30" s="49" t="s">
-        <v>257</v>
-      </c>
-      <c r="L30" s="49" t="s">
-        <v>252</v>
-      </c>
       <c r="M30" s="49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N30" s="55">
         <v>45673</v>
       </c>
       <c r="O30" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P30" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q30" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R30" s="49" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="S30" s="49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T30" s="49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U30" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V30" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W30" s="49">
         <v>220000</v>
@@ -12798,75 +12802,75 @@
         <v>202000</v>
       </c>
       <c r="AE30" s="61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1" spans="1:31">
       <c r="A31" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B31" s="51">
         <v>22</v>
       </c>
       <c r="C31" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="D31" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="H31" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I31" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="J31" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="K31" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="L31" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="D31" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="H31" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I31" s="52" t="s">
-        <v>262</v>
-      </c>
-      <c r="J31" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="K31" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="L31" s="52" t="s">
-        <v>260</v>
-      </c>
       <c r="M31" s="52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N31" s="56">
         <v>45824</v>
       </c>
       <c r="O31" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P31" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q31" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R31" s="52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="S31" s="52" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="T31" s="52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U31" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V31" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W31" s="52">
         <v>256000</v>
@@ -12893,75 +12897,75 @@
         <v>250000</v>
       </c>
       <c r="AE31" s="60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1" spans="1:31">
       <c r="A32" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B32" s="48">
         <v>23</v>
       </c>
       <c r="C32" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I32" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="J32" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="K32" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="L32" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="D32" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F32" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="49" t="s">
-        <v>232</v>
-      </c>
-      <c r="H32" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="I32" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="J32" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="K32" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="L32" s="49" t="s">
-        <v>266</v>
-      </c>
       <c r="M32" s="49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N32" s="55">
         <v>45826</v>
       </c>
       <c r="O32" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P32" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q32" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R32" s="49" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="S32" s="49" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T32" s="49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U32" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V32" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W32" s="49">
         <v>73000</v>
@@ -12988,75 +12992,75 @@
         <v>70000</v>
       </c>
       <c r="AE32" s="61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1" spans="1:31">
       <c r="A33" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B33" s="51">
         <v>24</v>
       </c>
       <c r="C33" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I33" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="J33" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="K33" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="L33" s="52" t="s">
         <v>271</v>
       </c>
-      <c r="D33" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F33" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="H33" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I33" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="J33" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="K33" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="L33" s="52" t="s">
-        <v>270</v>
-      </c>
       <c r="M33" s="52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N33" s="56">
         <v>45666</v>
       </c>
       <c r="O33" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P33" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q33" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R33" s="52" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="S33" s="52" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="T33" s="52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U33" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V33" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W33" s="52">
         <v>110000</v>
@@ -13083,75 +13087,75 @@
         <v>106000</v>
       </c>
       <c r="AE33" s="60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1" spans="1:31">
       <c r="A34" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B34" s="48">
         <v>25</v>
       </c>
       <c r="C34" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I34" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="J34" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="K34" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="L34" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="D34" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="H34" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="I34" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="J34" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="K34" s="49" t="s">
-        <v>276</v>
-      </c>
-      <c r="L34" s="49" t="s">
-        <v>274</v>
-      </c>
       <c r="M34" s="49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N34" s="49" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O34" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P34" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q34" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R34" s="49" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="S34" s="49" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="T34" s="49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U34" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V34" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W34" s="49">
         <v>341000</v>
@@ -13178,75 +13182,75 @@
         <v>335000</v>
       </c>
       <c r="AE34" s="61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1" spans="1:31">
       <c r="A35" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B35" s="51">
         <v>26</v>
       </c>
       <c r="C35" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="H35" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I35" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="J35" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="K35" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="L35" s="52" t="s">
         <v>281</v>
       </c>
-      <c r="D35" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="H35" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I35" s="52" t="s">
-        <v>165</v>
-      </c>
-      <c r="J35" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="K35" s="52" t="s">
-        <v>282</v>
-      </c>
-      <c r="L35" s="52" t="s">
-        <v>280</v>
-      </c>
       <c r="M35" s="52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N35" s="56">
         <v>45692</v>
       </c>
       <c r="O35" s="52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P35" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q35" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R35" s="52" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="S35" s="52" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="T35" s="52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U35" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V35" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W35" s="52">
         <v>61000</v>
@@ -13273,75 +13277,75 @@
         <v>61000</v>
       </c>
       <c r="AE35" s="60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1" spans="1:31">
       <c r="A36" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B36" s="48">
         <v>27</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D36" s="49" t="s">
         <v>5</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F36" s="49" t="s">
         <v>6</v>
       </c>
       <c r="G36" s="49" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H36" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I36" s="49" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J36" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K36" s="49" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L36" s="49" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M36" s="49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N36" s="49" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O36" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P36" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q36" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R36" s="49" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="S36" s="49" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="T36" s="49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U36" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V36" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W36" s="49">
         <v>12000</v>
@@ -13368,75 +13372,75 @@
         <v>14000</v>
       </c>
       <c r="AE36" s="61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" ht="13.5" customHeight="1" spans="1:31">
       <c r="A37" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B37" s="51">
         <v>28</v>
       </c>
       <c r="C37" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="D37" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="H37" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I37" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="J37" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="K37" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="L37" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="D37" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="H37" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I37" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="J37" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="K37" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="L37" s="52" t="s">
-        <v>292</v>
-      </c>
       <c r="M37" s="52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N37" s="56">
         <v>45901</v>
       </c>
       <c r="O37" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P37" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q37" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R37" s="52" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="S37" s="52" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="T37" s="52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U37" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V37" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W37" s="52">
         <v>12000</v>
@@ -13463,75 +13467,75 @@
         <v>16000</v>
       </c>
       <c r="AE37" s="60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1" spans="1:31">
       <c r="A38" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B38" s="48">
         <v>29</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D38" s="49" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F38" s="49" t="s">
         <v>6</v>
       </c>
       <c r="G38" s="49" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H38" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I38" s="49" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J38" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K38" s="49" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L38" s="49" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M38" s="49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N38" s="55">
         <v>45691</v>
       </c>
       <c r="O38" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P38" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q38" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R38" s="49" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S38" s="49" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T38" s="49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U38" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V38" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W38" s="49">
         <v>19000</v>
@@ -13558,75 +13562,75 @@
         <v>21000</v>
       </c>
       <c r="AE38" s="61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1" spans="1:31">
       <c r="A39" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B39" s="51">
         <v>30</v>
       </c>
       <c r="C39" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="H39" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I39" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="J39" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="K39" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="L39" s="52" t="s">
         <v>305</v>
       </c>
-      <c r="D39" s="52" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="F39" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="H39" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="I39" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="J39" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="K39" s="52" t="s">
-        <v>306</v>
-      </c>
-      <c r="L39" s="52" t="s">
-        <v>304</v>
-      </c>
       <c r="M39" s="52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N39" s="52" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O39" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P39" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q39" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R39" s="52" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="S39" s="52" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="T39" s="52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U39" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V39" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W39" s="52">
         <v>92000</v>
@@ -13653,75 +13657,75 @@
         <v>89000</v>
       </c>
       <c r="AE39" s="60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" ht="13.5" customHeight="1" spans="1:31">
       <c r="A40" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B40" s="48">
         <v>31</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D40" s="49" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F40" s="49" t="s">
         <v>6</v>
       </c>
       <c r="G40" s="49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H40" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I40" s="49" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J40" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K40" s="49" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L40" s="49" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M40" s="49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N40" s="49" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="O40" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P40" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q40" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R40" s="49" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S40" s="49" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="T40" s="49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U40" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V40" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W40" s="49">
         <v>72000</v>
@@ -13748,75 +13752,75 @@
         <v>73000</v>
       </c>
       <c r="AE40" s="61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" ht="13.5" customHeight="1" spans="1:31">
       <c r="A41" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B41" s="51">
         <v>32</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D41" s="52" t="s">
         <v>5</v>
       </c>
       <c r="E41" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F41" s="52" t="s">
         <v>6</v>
       </c>
       <c r="G41" s="52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H41" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I41" s="52" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J41" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K41" s="52" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L41" s="52" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M41" s="52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N41" s="56">
         <v>45815</v>
       </c>
       <c r="O41" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P41" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q41" s="52" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R41" s="52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S41" s="52" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="T41" s="52" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U41" s="52" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V41" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W41" s="52">
         <v>96000</v>
@@ -13843,75 +13847,75 @@
         <v>95000</v>
       </c>
       <c r="AE41" s="60" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1" spans="1:31">
       <c r="A42" s="11" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B42" s="48">
         <v>33</v>
       </c>
       <c r="C42" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="H42" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="J42" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="K42" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="L42" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="D42" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="G42" s="49" t="s">
-        <v>227</v>
-      </c>
-      <c r="H42" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="I42" s="49" t="s">
-        <v>324</v>
-      </c>
-      <c r="J42" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="K42" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="L42" s="49" t="s">
-        <v>322</v>
-      </c>
       <c r="M42" s="49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N42" s="55">
         <v>45688</v>
       </c>
       <c r="O42" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P42" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q42" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R42" s="49" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S42" s="49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="T42" s="49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="U42" s="49" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="V42" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="W42" s="49">
         <v>342000</v>
@@ -13938,7 +13942,7 @@
         <v>326000</v>
       </c>
       <c r="AE42" s="61" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1"/>
@@ -14945,55 +14949,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M1" s="40" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N1" s="40" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O1" s="40" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P1" s="41" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="R1" s="40" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S1" s="44"/>
       <c r="T1" s="44"/>
@@ -15009,22 +15013,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H2" s="37">
         <v>53.704</v>
@@ -15048,16 +15052,16 @@
         <v>0</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="P2" s="43">
         <v>45931</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S2" s="44"/>
       <c r="T2" s="44"/>
@@ -15073,22 +15077,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H3" s="37">
         <v>58.334</v>
@@ -15112,16 +15116,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P3" s="43">
         <v>45931</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
@@ -15137,22 +15141,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H4" s="37">
         <v>29.63</v>
@@ -15176,16 +15180,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="P4" s="43">
         <v>45931</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S4" s="44"/>
       <c r="T4" s="44"/>
@@ -15201,22 +15205,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H5" s="37">
         <v>43.519</v>
@@ -15240,16 +15244,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P5" s="43">
         <v>45931</v>
       </c>
       <c r="Q5" s="35" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="R5" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S5" s="44"/>
       <c r="T5" s="44"/>
@@ -15265,22 +15269,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H6" s="37">
         <v>39.815</v>
@@ -15304,16 +15308,16 @@
         <v>0</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P6" s="43">
         <v>45931</v>
       </c>
       <c r="Q6" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="R6" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S6" s="44"/>
       <c r="T6" s="44"/>
@@ -15329,22 +15333,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H7" s="37">
         <v>40.741</v>
@@ -15368,16 +15372,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P7" s="43">
         <v>45931</v>
       </c>
       <c r="Q7" s="35" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="R7" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S7" s="44"/>
       <c r="T7" s="44"/>
@@ -15393,22 +15397,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H8" s="37">
         <v>59.26</v>
@@ -15432,16 +15436,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P8" s="43">
         <v>45931</v>
       </c>
       <c r="Q8" s="35" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R8" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S8" s="44"/>
       <c r="T8" s="44"/>
@@ -15457,22 +15461,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D9" s="38">
         <v>1</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F9" s="39">
         <v>45936</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H9" s="37">
         <v>205.556</v>
@@ -15496,16 +15500,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="37" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P9" s="43">
         <v>45932</v>
       </c>
       <c r="Q9" s="37" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="R9" s="37" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="S9" s="45"/>
       <c r="T9" s="45"/>
@@ -15521,7 +15525,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C10" s="36">
         <v>2745661</v>
@@ -15530,13 +15534,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F10" s="39">
         <v>45936</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H10" s="37">
         <v>216.667</v>
@@ -15560,16 +15564,16 @@
         <v>0</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P10" s="43">
         <v>45932</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" spans="1:18">
@@ -15577,7 +15581,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C11" s="36">
         <v>2745713</v>
@@ -15586,13 +15590,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F11" s="39">
         <v>45936</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H11" s="37">
         <v>60.185</v>
@@ -15616,16 +15620,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P11" s="43">
         <v>45932</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="1:18">
@@ -15633,7 +15637,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C12" s="36">
         <v>2745765</v>
@@ -15642,13 +15646,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F12" s="39">
         <v>45936</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H12" s="37">
         <v>59.26</v>
@@ -15672,16 +15676,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P12" s="43">
         <v>45932</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1" spans="1:18">
@@ -15689,7 +15693,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C13" s="36">
         <v>2745817</v>
@@ -15698,13 +15702,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F13" s="39">
         <v>45936</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H13" s="37">
         <v>55.556</v>
@@ -15728,16 +15732,16 @@
         <v>0</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P13" s="43">
         <v>45932</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" spans="1:18">
@@ -15745,7 +15749,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C14" s="36">
         <v>2745868</v>
@@ -15754,13 +15758,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F14" s="39">
         <v>45936</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H14" s="37">
         <v>72.223</v>
@@ -15784,16 +15788,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P14" s="43">
         <v>45932</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" spans="1:18">
@@ -15801,7 +15805,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C15" s="36">
         <v>2745920</v>
@@ -15810,13 +15814,13 @@
         <v>1</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F15" s="39">
         <v>45936</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H15" s="37">
         <v>45.371</v>
@@ -15840,16 +15844,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P15" s="43">
         <v>45932</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1" spans="1:18">
@@ -15857,7 +15861,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C16" s="36">
         <v>2745970</v>
@@ -15866,13 +15870,13 @@
         <v>1</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F16" s="39">
         <v>45936</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H16" s="37">
         <v>67.593</v>
@@ -15896,16 +15900,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P16" s="43">
         <v>45933</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1" spans="1:18">
@@ -15913,7 +15917,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C17" s="36">
         <v>2746021</v>
@@ -15922,13 +15926,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F17" s="39">
         <v>45936</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H17" s="37">
         <v>46.297</v>
@@ -15952,16 +15956,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="35" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P17" s="43">
         <v>45933</v>
       </c>
       <c r="Q17" s="35" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="R17" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1" spans="1:18">
@@ -15969,7 +15973,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C18" s="36">
         <v>2746072</v>
@@ -15978,13 +15982,13 @@
         <v>1</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F18" s="39">
         <v>45936</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H18" s="37">
         <v>64.815</v>
@@ -16008,16 +16012,16 @@
         <v>0</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P18" s="43">
         <v>45933</v>
       </c>
       <c r="Q18" s="35" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="R18" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1" spans="1:18">
@@ -16025,7 +16029,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C19" s="36">
         <v>2746123</v>
@@ -16034,13 +16038,13 @@
         <v>1</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F19" s="39">
         <v>45936</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H19" s="37">
         <v>48.148</v>
@@ -16064,16 +16068,16 @@
         <v>0</v>
       </c>
       <c r="O19" s="35" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P19" s="43">
         <v>45933</v>
       </c>
       <c r="Q19" s="35" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="R19" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1" spans="1:18">
@@ -16081,7 +16085,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C20" s="36">
         <v>2746174</v>
@@ -16090,13 +16094,13 @@
         <v>1</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F20" s="39">
         <v>45936</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H20" s="37">
         <v>26.852</v>
@@ -16120,16 +16124,16 @@
         <v>0</v>
       </c>
       <c r="O20" s="35" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P20" s="43">
         <v>45933</v>
       </c>
       <c r="Q20" s="35" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="R20" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1" spans="1:18">
@@ -16137,7 +16141,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C21" s="36">
         <v>2746224</v>
@@ -16146,13 +16150,13 @@
         <v>1</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F21" s="39">
         <v>45936</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H21" s="37">
         <v>38.889</v>
@@ -16176,16 +16180,16 @@
         <v>0</v>
       </c>
       <c r="O21" s="35" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P21" s="43">
         <v>45933</v>
       </c>
       <c r="Q21" s="35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="R21" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1" spans="1:18">
@@ -16193,7 +16197,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C22" s="36">
         <v>2746275</v>
@@ -16202,13 +16206,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F22" s="39">
         <v>45936</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H22" s="37">
         <v>187.037</v>
@@ -16232,16 +16236,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P22" s="43">
         <v>45933</v>
       </c>
       <c r="Q22" s="35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="R22" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1" spans="1:18">
@@ -16249,7 +16253,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C23" s="36">
         <v>2746325</v>
@@ -16258,13 +16262,13 @@
         <v>1</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F23" s="39">
         <v>45936</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H23" s="37">
         <v>231.482</v>
@@ -16288,16 +16292,16 @@
         <v>0</v>
       </c>
       <c r="O23" s="35" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P23" s="43">
         <v>45933</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="R23" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1" spans="1:18">
@@ -16305,7 +16309,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C24" s="36">
         <v>2746374</v>
@@ -16314,13 +16318,13 @@
         <v>1</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F24" s="39">
         <v>45936</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H24" s="37">
         <v>64.815</v>
@@ -16344,16 +16348,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P24" s="43">
         <v>45933</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="R24" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1" spans="1:18">
@@ -16361,7 +16365,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C25" s="36">
         <v>2746425</v>
@@ -16370,13 +16374,13 @@
         <v>1</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F25" s="39">
         <v>45936</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H25" s="37">
         <v>98.149</v>
@@ -16400,16 +16404,16 @@
         <v>0</v>
       </c>
       <c r="O25" s="35" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P25" s="43">
         <v>45933</v>
       </c>
       <c r="Q25" s="35" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="R25" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1" spans="1:18">
@@ -16417,7 +16421,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C26" s="36">
         <v>2746476</v>
@@ -16426,13 +16430,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F26" s="39">
         <v>45936</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H26" s="37">
         <v>310.185</v>
@@ -16456,16 +16460,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="35" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P26" s="43">
         <v>45934</v>
       </c>
       <c r="Q26" s="35" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="R26" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1" spans="1:18">
@@ -16473,7 +16477,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C27" s="36">
         <v>2746526</v>
@@ -16482,13 +16486,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F27" s="39">
         <v>45936</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H27" s="37">
         <v>56.482</v>
@@ -16512,16 +16516,16 @@
         <v>0</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P27" s="43">
         <v>45934</v>
       </c>
       <c r="Q27" s="35" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="R27" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1" spans="1:18">
@@ -16529,7 +16533,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C28" s="36">
         <v>2746574</v>
@@ -16538,13 +16542,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F28" s="39">
         <v>45936</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H28" s="37">
         <v>12.963</v>
@@ -16568,16 +16572,16 @@
         <v>0</v>
       </c>
       <c r="O28" s="35" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P28" s="43">
         <v>45934</v>
       </c>
       <c r="Q28" s="35" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="R28" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:18">
@@ -16585,7 +16589,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C29" s="36">
         <v>2746673</v>
@@ -16594,13 +16598,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F29" s="39">
         <v>45936</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H29" s="37">
         <v>19.445</v>
@@ -16624,16 +16628,16 @@
         <v>0</v>
       </c>
       <c r="O29" s="35" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P29" s="43">
         <v>45934</v>
       </c>
       <c r="Q29" s="35" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="R29" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:18">
@@ -16641,7 +16645,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C30" s="36">
         <v>2746623</v>
@@ -16650,13 +16654,13 @@
         <v>1</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F30" s="39">
         <v>45936</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H30" s="37">
         <v>14.815</v>
@@ -16680,16 +16684,16 @@
         <v>0</v>
       </c>
       <c r="O30" s="35" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P30" s="43">
         <v>45934</v>
       </c>
       <c r="Q30" s="35" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="R30" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1" spans="1:18">
@@ -16697,7 +16701,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C31" s="36">
         <v>2746721</v>
@@ -16706,13 +16710,13 @@
         <v>1</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F31" s="39">
         <v>45936</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H31" s="37">
         <v>82.408</v>
@@ -16736,16 +16740,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="35" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P31" s="43">
         <v>45934</v>
       </c>
       <c r="Q31" s="35" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="R31" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1" spans="1:18">
@@ -16753,7 +16757,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C32" s="36">
         <v>2746771</v>
@@ -16762,13 +16766,13 @@
         <v>1</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F32" s="39">
         <v>45936</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H32" s="37">
         <v>67.593</v>
@@ -16792,16 +16796,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="35" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="P32" s="43">
         <v>45934</v>
       </c>
       <c r="Q32" s="35" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="R32" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1" spans="1:18">
@@ -16809,7 +16813,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C33" s="36">
         <v>2746872</v>
@@ -16818,13 +16822,13 @@
         <v>1</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F33" s="39">
         <v>45936</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H33" s="37">
         <v>301.852</v>
@@ -16848,16 +16852,16 @@
         <v>0</v>
       </c>
       <c r="O33" s="35" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P33" s="43">
         <v>45934</v>
       </c>
       <c r="Q33" s="35" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="R33" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1" spans="1:18">
@@ -16865,7 +16869,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C34" s="36">
         <v>2746821</v>
@@ -16874,13 +16878,13 @@
         <v>1</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F34" s="39">
         <v>45936</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H34" s="37">
         <v>87.963</v>
@@ -16904,33 +16908,33 @@
         <v>0</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="P34" s="43">
         <v>45934</v>
       </c>
       <c r="Q34" s="35" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="R34" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1" spans="1:14">
       <c r="A35" s="35" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H35" s="37" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I35" s="37">
         <v>229.396</v>
       </c>
       <c r="J35" s="37" t="s">
+        <v>426</v>
+      </c>
+      <c r="K35" s="42" t="s">
         <v>425</v>
-      </c>
-      <c r="K35" s="42" t="s">
-        <v>424</v>
       </c>
       <c r="L35" s="37">
         <v>229.396</v>
@@ -17993,10 +17997,10 @@
     <row r="1" ht="13.5" customHeight="1" spans="1:19">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -18018,7 +18022,7 @@
     <row r="2" ht="13.5" customHeight="1" spans="1:19">
       <c r="A2" s="5"/>
       <c r="B2" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="4"/>
@@ -18041,7 +18045,7 @@
     <row r="3" ht="13.5" customHeight="1" spans="1:19">
       <c r="A3" s="5"/>
       <c r="B3" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -18059,10 +18063,10 @@
     <row r="4" ht="13.5" customHeight="1" spans="1:19">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -18084,10 +18088,10 @@
     <row r="5" ht="13.5" customHeight="1" spans="1:19">
       <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>431</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>430</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -18108,7 +18112,7 @@
     </row>
     <row r="6" ht="13.5" customHeight="1" spans="1:19">
       <c r="A6" s="95" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -18131,40 +18135,40 @@
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="1:19">
       <c r="A7" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
@@ -18179,7 +18183,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="12" t="str">
         <f>VLOOKUP(B8,Report!A:D,4,0)</f>
@@ -18237,7 +18241,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" s="12" t="str">
         <f>VLOOKUP(B9,Report!A:D,4,0)</f>
@@ -18295,7 +18299,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C10" s="12" t="str">
         <f>VLOOKUP(B10,Report!A:D,4,0)</f>
@@ -18353,7 +18357,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C11" s="12" t="str">
         <f>VLOOKUP(B11,Report!A:D,4,0)</f>
@@ -18411,7 +18415,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C12" s="12" t="str">
         <f>VLOOKUP(B12,Report!A:D,4,0)</f>
@@ -18469,7 +18473,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="12" t="str">
         <f>VLOOKUP(B13,Report!A:D,4,0)</f>
@@ -18527,7 +18531,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" s="12" t="str">
         <f>VLOOKUP(B14,Report!A:D,4,0)</f>
@@ -18585,7 +18589,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" s="12" t="str">
         <f>VLOOKUP(B15,Report!A:D,4,0)</f>
@@ -18643,7 +18647,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C16" s="12" t="str">
         <f>VLOOKUP(B16,Report!A:D,4,0)</f>
@@ -18701,7 +18705,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C17" s="12" t="str">
         <f>VLOOKUP(B17,Report!A:D,4,0)</f>
@@ -18759,7 +18763,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C18" s="12" t="str">
         <f>VLOOKUP(B18,Report!A:D,4,0)</f>
@@ -18817,7 +18821,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" s="12" t="str">
         <f>VLOOKUP(B19,Report!A:D,4,0)</f>
@@ -18875,7 +18879,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C20" s="12" t="str">
         <f>VLOOKUP(B20,Report!A:D,4,0)</f>
@@ -18933,7 +18937,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C21" s="12" t="str">
         <f>VLOOKUP(B21,Report!A:D,4,0)</f>
@@ -18991,7 +18995,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C22" s="12" t="str">
         <f>VLOOKUP(B22,Report!A:D,4,0)</f>
@@ -19049,7 +19053,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C23" s="12" t="str">
         <f>VLOOKUP(B23,Report!A:D,4,0)</f>
@@ -19107,7 +19111,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C24" s="12" t="str">
         <f>VLOOKUP(B24,Report!A:D,4,0)</f>
@@ -19165,7 +19169,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C25" s="12" t="str">
         <f>VLOOKUP(B25,Report!A:D,4,0)</f>
@@ -19223,7 +19227,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C26" s="12" t="str">
         <f>VLOOKUP(B26,Report!A:D,4,0)</f>
@@ -19281,7 +19285,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C27" s="12" t="str">
         <f>VLOOKUP(B27,Report!A:D,4,0)</f>
@@ -19339,7 +19343,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C28" s="12" t="str">
         <f>VLOOKUP(B28,Report!A:D,4,0)</f>
@@ -19397,7 +19401,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C29" s="12" t="str">
         <f>VLOOKUP(B29,Report!A:D,4,0)</f>
@@ -19455,7 +19459,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C30" s="12" t="str">
         <f>VLOOKUP(B30,Report!A:D,4,0)</f>
@@ -19513,7 +19517,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C31" s="12" t="str">
         <f>VLOOKUP(B31,Report!A:D,4,0)</f>
@@ -19571,7 +19575,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C32" s="12" t="str">
         <f>VLOOKUP(B32,Report!A:D,4,0)</f>
@@ -19629,7 +19633,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C33" s="12" t="str">
         <f>VLOOKUP(B33,Report!A:D,4,0)</f>
@@ -19687,7 +19691,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C34" s="12" t="str">
         <f>VLOOKUP(B34,Report!A:D,4,0)</f>
@@ -19745,7 +19749,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C35" s="12" t="str">
         <f>VLOOKUP(B35,Report!A:D,4,0)</f>
@@ -19803,7 +19807,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C36" s="12" t="str">
         <f>VLOOKUP(B36,Report!A:D,4,0)</f>
@@ -19861,7 +19865,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C37" s="12" t="str">
         <f>VLOOKUP(B37,Report!A:D,4,0)</f>
@@ -19919,7 +19923,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C38" s="12" t="str">
         <f>VLOOKUP(B38,Report!A:D,4,0)</f>
@@ -19977,7 +19981,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C39" s="12" t="str">
         <f>VLOOKUP(B39,Report!A:D,4,0)</f>
@@ -20035,7 +20039,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C40" s="20" t="str">
         <f>VLOOKUP(B40,Report!A:D,4,0)</f>
@@ -20098,7 +20102,7 @@
       <c r="G41" s="23"/>
       <c r="H41" s="24"/>
       <c r="I41" s="31" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J41" s="32">
         <f>SUM(J8:J40)</f>

--- a/FileMau/Tong hop _ Report.xlsx
+++ b/FileMau/Tong hop _ Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300"/>
+    <workbookView windowWidth="27945" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="441">
   <si>
     <t>STT</t>
   </si>
@@ -84,46 +84,49 @@
     <t>HUYNH THI THANH</t>
   </si>
   <si>
+    <t>Lientt3@fe.edu.vn</t>
+  </si>
+  <si>
+    <t>BUI NGOC QUYNH NHU</t>
+  </si>
+  <si>
+    <t>P. Quan he Doanh Nghiep</t>
+  </si>
+  <si>
+    <t>NGO QUYNH BAO TRAM</t>
+  </si>
+  <si>
+    <t>BTEC</t>
+  </si>
+  <si>
+    <t>FPI</t>
+  </si>
+  <si>
+    <t>NGUYEN PHUOC CUONG</t>
+  </si>
+  <si>
+    <t>FPL TAY NGUYEN</t>
+  </si>
+  <si>
+    <t>FPL.Tây Nguyên</t>
+  </si>
+  <si>
+    <t>DUONG DINH CUONG</t>
+  </si>
+  <si>
+    <t>He PTCD HCM</t>
+  </si>
+  <si>
+    <t>FPS.HCM</t>
+  </si>
+  <si>
+    <t>NGUYEN THI KIM CUONG</t>
+  </si>
+  <si>
+    <t>NGUYEN THI QUYNH ANH</t>
+  </si>
+  <si>
     <t>hiennm22@fe.edu.vn</t>
-  </si>
-  <si>
-    <t>BUI NGOC QUYNH NHU</t>
-  </si>
-  <si>
-    <t>P. Quan he Doanh Nghiep</t>
-  </si>
-  <si>
-    <t>NGO QUYNH BAO TRAM</t>
-  </si>
-  <si>
-    <t>BTEC</t>
-  </si>
-  <si>
-    <t>FPI</t>
-  </si>
-  <si>
-    <t>NGUYEN PHUOC CUONG</t>
-  </si>
-  <si>
-    <t>FPL TAY NGUYEN</t>
-  </si>
-  <si>
-    <t>FPL.Tây Nguyên</t>
-  </si>
-  <si>
-    <t>DUONG DINH CUONG</t>
-  </si>
-  <si>
-    <t>He PTCD HCM</t>
-  </si>
-  <si>
-    <t>FPS.HCM</t>
-  </si>
-  <si>
-    <t>NGUYEN THI KIM CUONG</t>
-  </si>
-  <si>
-    <t>NGUYEN THI QUYNH ANH</t>
   </si>
   <si>
     <t>NGUYEN HOANG BICH VY</t>
@@ -2791,12 +2794,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="Report-style" pivot="0" count="3" xr9:uid="{09662C7E-284A-41A2-AD11-5C229F5D0FE9}">
+    <tableStyle name="Report-style" pivot="0" count="3" xr9:uid="{564FB440-5A4A-485D-B7F0-D32FDC5D1F63}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Report-style 2" pivot="0" count="2" xr9:uid="{6AB2918A-12C7-4285-B04C-A4031C592308}">
+    <tableStyle name="Report-style 2" pivot="0" count="2" xr9:uid="{7D5036A1-31E3-4D96-8F98-2804754FE0DF}">
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
@@ -3057,7 +3060,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15" customHeight="1"/>
@@ -3457,7 +3460,7 @@
         <v>26</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E11" s="82" t="s">
         <v>27</v>
@@ -3487,7 +3490,7 @@
     <row r="12" ht="19.5" customHeight="1" spans="1:26">
       <c r="A12" s="72"/>
       <c r="B12" s="77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="78" t="s">
         <v>26</v>
@@ -3525,16 +3528,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="75" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="71"/>
@@ -3561,16 +3564,16 @@
     <row r="14" ht="19.5" customHeight="1" spans="1:26">
       <c r="A14" s="83"/>
       <c r="B14" s="67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="75" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" s="71"/>
       <c r="G14" s="71"/>
@@ -3597,16 +3600,16 @@
     <row r="15" ht="19.5" customHeight="1" spans="1:26">
       <c r="A15" s="83"/>
       <c r="B15" s="67" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D15" s="75" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="71"/>
@@ -3633,16 +3636,16 @@
     <row r="16" ht="19.5" customHeight="1" spans="1:26">
       <c r="A16" s="83"/>
       <c r="B16" s="67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="75" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" s="71"/>
       <c r="G16" s="71"/>
@@ -3669,16 +3672,16 @@
     <row r="17" ht="19.5" customHeight="1" spans="1:26">
       <c r="A17" s="72"/>
       <c r="B17" s="67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="84" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F17" s="71"/>
       <c r="G17" s="71"/>
@@ -3707,16 +3710,16 @@
         <v>9</v>
       </c>
       <c r="B18" s="77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="75" t="s">
         <v>7</v>
       </c>
       <c r="E18" s="82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" s="71"/>
       <c r="G18" s="71"/>
@@ -3743,16 +3746,16 @@
     <row r="19" ht="19.5" customHeight="1" spans="1:26">
       <c r="A19" s="72"/>
       <c r="B19" s="77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" s="84" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F19" s="71"/>
       <c r="G19" s="71"/>
@@ -3781,16 +3784,16 @@
         <v>10</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="75" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="71"/>
       <c r="G20" s="71"/>
@@ -3819,16 +3822,16 @@
         <v>11</v>
       </c>
       <c r="B21" s="77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="78" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="73" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E21" s="79" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F21" s="71"/>
       <c r="G21" s="71"/>
@@ -3857,16 +3860,16 @@
         <v>12</v>
       </c>
       <c r="B22" s="86" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="87" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D22" s="75" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F22" s="71"/>
       <c r="G22" s="71"/>
@@ -3895,16 +3898,16 @@
         <v>13</v>
       </c>
       <c r="B23" s="90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23" s="73" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E23" s="92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="71"/>
       <c r="G23" s="71"/>
@@ -10327,10 +10330,10 @@
     <hyperlink ref="D2" r:id="rId1" display="nmhien3007@gmail.com" tooltip="mailto:nmhien3007@gmail.com"/>
     <hyperlink ref="D13" r:id="rId3" display="locth5@fe.edu.vn" tooltip="mailto:locth5@fe.edu.vn"/>
     <hyperlink ref="D9" r:id="rId1" display="locth5@fe.edu.vn"/>
-    <hyperlink ref="D5" r:id="rId4" display="hiennm22@fe.edu.vn"/>
-    <hyperlink ref="D11" r:id="rId4" display="hiennm22@fe.edu.vn"/>
-    <hyperlink ref="D21" r:id="rId4" display="hiennm22@fe.edu.vn"/>
-    <hyperlink ref="D23" r:id="rId4" display="hiennm22@fe.edu.vn"/>
+    <hyperlink ref="D5" r:id="rId4" display="Lientt3@fe.edu.vn" tooltip="mailto:Lientt3@fe.edu.vn"/>
+    <hyperlink ref="D11" r:id="rId5" display="hiennm22@fe.edu.vn"/>
+    <hyperlink ref="D21" r:id="rId5" display="hiennm22@fe.edu.vn"/>
+    <hyperlink ref="D23" r:id="rId5" display="hiennm22@fe.edu.vn"/>
     <hyperlink ref="D7" r:id="rId1" display="nmhien3007@gmail.com"/>
     <hyperlink ref="D3" r:id="rId3" display="locth5@fe.edu.vn"/>
   </hyperlinks>
@@ -10377,102 +10380,102 @@
   <sheetData>
     <row r="1" ht="13.5" customHeight="1" spans="2:31">
       <c r="B1" s="46" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="47" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I1" s="47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J1" s="47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K1" s="47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L1" s="47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M1" s="47" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N1" s="47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O1" s="47" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P1" s="47" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q1" s="47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="R1" s="47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S1" s="47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T1" s="47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U1" s="47" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V1" s="47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W1" s="47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X1" s="47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Y1" s="47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z1" s="47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AA1" s="47" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AB1" s="47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AC1" s="47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD1" s="47" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AE1" s="57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="2:31">
       <c r="B2" s="48" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
@@ -10505,10 +10508,10 @@
     </row>
     <row r="3" ht="13.5" customHeight="1" spans="2:31">
       <c r="B3" s="51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3" s="53"/>
       <c r="E3" s="53"/>
@@ -10541,10 +10544,10 @@
     </row>
     <row r="4" ht="13.5" customHeight="1" spans="2:31">
       <c r="B4" s="48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
@@ -10577,10 +10580,10 @@
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="2:31">
       <c r="B5" s="51" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
@@ -10613,7 +10616,7 @@
     </row>
     <row r="6" ht="13.5" customHeight="1" spans="2:31">
       <c r="B6" s="48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="49">
         <v>35</v>
@@ -10649,10 +10652,10 @@
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="2:31">
       <c r="B7" s="51" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
@@ -10717,165 +10720,165 @@
     </row>
     <row r="9" ht="13.5" customHeight="1" spans="1:31">
       <c r="A9" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F9" s="52" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I9" s="52" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J9" s="52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K9" s="52" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L9" s="52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" s="52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N9" s="52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O9" s="52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P9" s="52" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q9" s="52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R9" s="52" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S9" s="52" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="T9" s="52" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U9" s="52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="V9" s="52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="W9" s="52" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="X9" s="52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y9" s="52" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z9" s="52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA9" s="52" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AB9" s="52" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AC9" s="52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD9" s="52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AE9" s="60" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" ht="13.5" customHeight="1" spans="1:31">
       <c r="A10" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" s="48">
         <v>1</v>
       </c>
       <c r="C10" s="49" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D10" s="49" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F10" s="49" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>126</v>
-      </c>
       <c r="K10" s="49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M10" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" s="55">
         <v>45667</v>
       </c>
       <c r="O10" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P10" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R10" s="49" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="S10" s="49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="T10" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U10" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V10" s="49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W10" s="49">
         <v>56000</v>
@@ -10902,75 +10905,75 @@
         <v>58000</v>
       </c>
       <c r="AE10" s="61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" spans="1:31">
       <c r="A11" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B11" s="51">
         <v>2</v>
       </c>
       <c r="C11" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="L11" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="J11" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="K11" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="L11" s="52" t="s">
-        <v>138</v>
-      </c>
       <c r="M11" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N11" s="56">
         <v>45694</v>
       </c>
       <c r="O11" s="52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P11" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R11" s="52" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S11" s="52" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="T11" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U11" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V11" s="52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W11" s="52">
         <v>64000</v>
@@ -10997,75 +11000,75 @@
         <v>63000</v>
       </c>
       <c r="AE11" s="60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="1:31">
       <c r="A12" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" s="48">
         <v>3</v>
       </c>
       <c r="C12" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="L12" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="H12" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="I12" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="J12" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="K12" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="L12" s="49" t="s">
-        <v>145</v>
-      </c>
       <c r="M12" s="49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N12" s="55">
         <v>45809</v>
       </c>
       <c r="O12" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P12" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q12" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R12" s="49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="S12" s="49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="T12" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U12" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V12" s="49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W12" s="49">
         <v>30000</v>
@@ -11092,75 +11095,75 @@
         <v>32000</v>
       </c>
       <c r="AE12" s="61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1" spans="1:31">
       <c r="A13" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B13" s="51">
         <v>4</v>
       </c>
       <c r="C13" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="L13" s="52" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="I13" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="J13" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="K13" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="L13" s="52" t="s">
-        <v>153</v>
-      </c>
       <c r="M13" s="52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N13" s="56">
         <v>45719</v>
       </c>
       <c r="O13" s="52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P13" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q13" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R13" s="52" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S13" s="52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T13" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U13" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V13" s="52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W13" s="52">
         <v>47000</v>
@@ -11187,75 +11190,75 @@
         <v>47000</v>
       </c>
       <c r="AE13" s="60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" spans="1:31">
       <c r="A14" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B14" s="48">
         <v>5</v>
       </c>
       <c r="C14" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="K14" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="L14" s="49" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="J14" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="K14" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" s="49" t="s">
-        <v>158</v>
-      </c>
       <c r="M14" s="49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N14" s="49" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O14" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P14" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q14" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R14" s="49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S14" s="49" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="T14" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U14" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V14" s="49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W14" s="49">
         <v>42000</v>
@@ -11282,75 +11285,75 @@
         <v>43000</v>
       </c>
       <c r="AE14" s="61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" spans="1:31">
       <c r="A15" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B15" s="51">
         <v>6</v>
       </c>
       <c r="C15" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="J15" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="K15" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="L15" s="52" t="s">
-        <v>164</v>
-      </c>
       <c r="M15" s="52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N15" s="56">
         <v>45902</v>
       </c>
       <c r="O15" s="52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P15" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q15" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R15" s="52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="S15" s="52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="T15" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U15" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V15" s="52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W15" s="52">
         <v>45000</v>
@@ -11377,75 +11380,75 @@
         <v>44000</v>
       </c>
       <c r="AE15" s="60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1" spans="1:31">
       <c r="A16" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B16" s="48">
         <v>7</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D16" s="49" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F16" s="49" t="s">
         <v>18</v>
       </c>
       <c r="G16" s="49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J16" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K16" s="49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L16" s="49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M16" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N16" s="55">
         <v>45785</v>
       </c>
       <c r="O16" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P16" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q16" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R16" s="49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="S16" s="49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="T16" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U16" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V16" s="49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W16" s="49">
         <v>81000</v>
@@ -11472,75 +11475,75 @@
         <v>64000</v>
       </c>
       <c r="AE16" s="61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1" spans="1:31">
       <c r="A17" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B17" s="51">
         <v>8</v>
       </c>
       <c r="C17" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="D17" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="H17" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="I17" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="J17" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="K17" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="L17" s="52" t="s">
-        <v>178</v>
-      </c>
       <c r="M17" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N17" s="56">
         <v>45739</v>
       </c>
       <c r="O17" s="52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P17" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q17" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R17" s="52" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S17" s="52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="T17" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U17" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V17" s="52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W17" s="52">
         <v>240000</v>
@@ -11567,75 +11570,75 @@
         <v>222000</v>
       </c>
       <c r="AE17" s="60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1" spans="1:31">
       <c r="A18" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" s="48">
         <v>9</v>
       </c>
       <c r="C18" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="D18" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>174</v>
-      </c>
-      <c r="H18" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="I18" s="49" t="s">
-        <v>186</v>
-      </c>
-      <c r="J18" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="K18" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="L18" s="49" t="s">
-        <v>184</v>
-      </c>
       <c r="M18" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N18" s="55">
         <v>45922</v>
       </c>
       <c r="O18" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P18" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R18" s="49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="S18" s="49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T18" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U18" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V18" s="49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W18" s="49">
         <v>228000</v>
@@ -11662,75 +11665,75 @@
         <v>234000</v>
       </c>
       <c r="AE18" s="61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1" spans="1:31">
       <c r="A19" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B19" s="51">
         <v>10</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D19" s="52" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F19" s="52" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H19" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I19" s="52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J19" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="52" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L19" s="52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M19" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N19" s="56">
         <v>45783</v>
       </c>
       <c r="O19" s="52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P19" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R19" s="52" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S19" s="52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T19" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U19" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V19" s="52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W19" s="52">
         <v>68000</v>
@@ -11757,75 +11760,75 @@
         <v>65000</v>
       </c>
       <c r="AE19" s="60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1" spans="1:31">
       <c r="A20" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B20" s="48">
         <v>11</v>
       </c>
       <c r="C20" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="D20" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="I20" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="J20" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="K20" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="L20" s="49" t="s">
-        <v>195</v>
-      </c>
       <c r="M20" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N20" s="55">
         <v>45694</v>
       </c>
       <c r="O20" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P20" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R20" s="49" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S20" s="49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="T20" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U20" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V20" s="49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W20" s="49">
         <v>65000</v>
@@ -11852,75 +11855,75 @@
         <v>64000</v>
       </c>
       <c r="AE20" s="61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1" spans="1:31">
       <c r="A21" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B21" s="51">
         <v>12</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D21" s="52" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F21" s="52" t="s">
         <v>18</v>
       </c>
       <c r="G21" s="52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I21" s="52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J21" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K21" s="52" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L21" s="52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M21" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N21" s="56">
         <v>45783</v>
       </c>
       <c r="O21" s="52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P21" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q21" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R21" s="52" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S21" s="52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="T21" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U21" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V21" s="52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W21" s="52">
         <v>76000</v>
@@ -11947,75 +11950,75 @@
         <v>60000</v>
       </c>
       <c r="AE21" s="60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1" spans="1:31">
       <c r="A22" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B22" s="48">
         <v>13</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D22" s="49" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F22" s="49" t="s">
         <v>26</v>
       </c>
       <c r="G22" s="49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H22" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I22" s="49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J22" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K22" s="49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L22" s="49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M22" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N22" s="55">
         <v>45907</v>
       </c>
       <c r="O22" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q22" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R22" s="49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="S22" s="49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T22" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U22" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V22" s="49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W22" s="49">
         <v>82000</v>
@@ -12042,75 +12045,75 @@
         <v>78000</v>
       </c>
       <c r="AE22" s="61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1" spans="1:31">
       <c r="A23" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B23" s="51">
         <v>14</v>
       </c>
       <c r="C23" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="H23" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="J23" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="L23" s="52" t="s">
         <v>214</v>
       </c>
-      <c r="D23" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="H23" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="I23" s="52" t="s">
-        <v>215</v>
-      </c>
-      <c r="J23" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="K23" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="L23" s="52" t="s">
-        <v>213</v>
-      </c>
       <c r="M23" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N23" s="56">
         <v>45812</v>
       </c>
       <c r="O23" s="52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P23" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q23" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R23" s="52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S23" s="52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T23" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U23" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V23" s="52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W23" s="52">
         <v>48000</v>
@@ -12137,75 +12140,75 @@
         <v>49000</v>
       </c>
       <c r="AE23" s="60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1" spans="1:31">
       <c r="A24" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B24" s="48">
         <v>15</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D24" s="49" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F24" s="49" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H24" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I24" s="49" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J24" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K24" s="49" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L24" s="49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M24" s="49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N24" s="55">
         <v>45661</v>
       </c>
       <c r="O24" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P24" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q24" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R24" s="49" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="S24" s="49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="T24" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U24" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V24" s="49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W24" s="49">
         <v>77000</v>
@@ -12232,75 +12235,75 @@
         <v>73000</v>
       </c>
       <c r="AE24" s="61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1" spans="1:31">
       <c r="A25" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B25" s="51">
         <v>16</v>
       </c>
       <c r="C25" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="H25" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="K25" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="L25" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="D25" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" s="52" t="s">
-        <v>228</v>
-      </c>
-      <c r="H25" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="I25" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="J25" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="K25" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="L25" s="52" t="s">
-        <v>226</v>
-      </c>
       <c r="M25" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N25" s="56">
         <v>45692</v>
       </c>
       <c r="O25" s="52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P25" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R25" s="52" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="S25" s="52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T25" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U25" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V25" s="52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W25" s="52">
         <v>49000</v>
@@ -12327,75 +12330,75 @@
         <v>50000</v>
       </c>
       <c r="AE25" s="60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1" spans="1:31">
       <c r="A26" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B26" s="48">
         <v>17</v>
       </c>
       <c r="C26" s="49" t="s">
+        <v>233</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="H26" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="I26" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="J26" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="K26" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="L26" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="D26" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="G26" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="H26" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="I26" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="J26" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="K26" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="L26" s="49" t="s">
-        <v>231</v>
-      </c>
       <c r="M26" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N26" s="55">
         <v>45676</v>
       </c>
       <c r="O26" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P26" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q26" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R26" s="49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S26" s="49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T26" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U26" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V26" s="49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W26" s="49">
         <v>73000</v>
@@ -12422,75 +12425,75 @@
         <v>70000</v>
       </c>
       <c r="AE26" s="61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1" spans="1:31">
       <c r="A27" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B27" s="51">
         <v>18</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D27" s="52" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F27" s="52" t="s">
         <v>26</v>
       </c>
       <c r="G27" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="H27" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="I27" s="52" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="H27" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="I27" s="52" t="s">
+      <c r="K27" s="52" t="s">
         <v>210</v>
       </c>
-      <c r="J27" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="K27" s="52" t="s">
-        <v>209</v>
-      </c>
       <c r="L27" s="52" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M27" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N27" s="56">
         <v>45845</v>
       </c>
       <c r="O27" s="52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P27" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q27" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R27" s="52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="S27" s="52" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="T27" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U27" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V27" s="52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W27" s="52">
         <v>63000</v>
@@ -12517,75 +12520,75 @@
         <v>52000</v>
       </c>
       <c r="AE27" s="60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1" spans="1:31">
       <c r="A28" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B28" s="48">
         <v>19</v>
       </c>
       <c r="C28" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F28" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="H28" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="I28" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="K28" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="L28" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="D28" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="I28" s="49" t="s">
-        <v>244</v>
-      </c>
-      <c r="J28" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="K28" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="L28" s="49" t="s">
-        <v>242</v>
-      </c>
       <c r="M28" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N28" s="49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O28" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P28" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q28" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R28" s="49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="S28" s="49" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="T28" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U28" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V28" s="49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W28" s="49">
         <v>26000</v>
@@ -12612,75 +12615,75 @@
         <v>29000</v>
       </c>
       <c r="AE28" s="61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:31">
       <c r="A29" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B29" s="51">
         <v>20</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D29" s="52" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F29" s="52" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H29" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I29" s="52" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J29" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K29" s="52" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L29" s="52" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M29" s="52" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N29" s="52" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O29" s="52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P29" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q29" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R29" s="52" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="S29" s="52" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="T29" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U29" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V29" s="52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W29" s="52">
         <v>42000</v>
@@ -12707,75 +12710,75 @@
         <v>42000</v>
       </c>
       <c r="AE29" s="60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:31">
       <c r="A30" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B30" s="48">
         <v>21</v>
       </c>
       <c r="C30" s="49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D30" s="49" t="s">
         <v>19</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F30" s="49" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="49" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H30" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I30" s="49" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="J30" s="49" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K30" s="49" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L30" s="49" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M30" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N30" s="55">
         <v>45673</v>
       </c>
       <c r="O30" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P30" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q30" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R30" s="49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S30" s="49" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="T30" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U30" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V30" s="49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W30" s="49">
         <v>220000</v>
@@ -12802,75 +12805,75 @@
         <v>202000</v>
       </c>
       <c r="AE30" s="61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1" spans="1:31">
       <c r="A31" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B31" s="51">
         <v>22</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D31" s="52" t="s">
         <v>19</v>
       </c>
       <c r="E31" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F31" s="52" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="52" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H31" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I31" s="52" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J31" s="52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K31" s="52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L31" s="52" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M31" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N31" s="56">
         <v>45824</v>
       </c>
       <c r="O31" s="52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P31" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q31" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R31" s="52" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="S31" s="52" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="T31" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U31" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V31" s="52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W31" s="52">
         <v>256000</v>
@@ -12897,75 +12900,75 @@
         <v>250000</v>
       </c>
       <c r="AE31" s="60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1" spans="1:31">
       <c r="A32" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B32" s="48">
         <v>23</v>
       </c>
       <c r="C32" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="H32" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="I32" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="J32" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="K32" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="D32" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="E32" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="49" t="s">
-        <v>233</v>
-      </c>
-      <c r="H32" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="I32" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="J32" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="K32" s="49" t="s">
-        <v>234</v>
-      </c>
-      <c r="L32" s="49" t="s">
-        <v>267</v>
-      </c>
       <c r="M32" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N32" s="55">
         <v>45826</v>
       </c>
       <c r="O32" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P32" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q32" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R32" s="49" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="S32" s="49" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="T32" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U32" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V32" s="49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W32" s="49">
         <v>73000</v>
@@ -12992,75 +12995,75 @@
         <v>70000</v>
       </c>
       <c r="AE32" s="61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1" spans="1:31">
       <c r="A33" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B33" s="51">
         <v>24</v>
       </c>
       <c r="C33" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="D33" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="H33" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="I33" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="J33" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="K33" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="L33" s="52" t="s">
         <v>272</v>
       </c>
-      <c r="D33" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="H33" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="I33" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="J33" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="K33" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="L33" s="52" t="s">
-        <v>271</v>
-      </c>
       <c r="M33" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N33" s="56">
         <v>45666</v>
       </c>
       <c r="O33" s="52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P33" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q33" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R33" s="52" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="S33" s="52" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="T33" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U33" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V33" s="52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W33" s="52">
         <v>110000</v>
@@ -13087,75 +13090,75 @@
         <v>106000</v>
       </c>
       <c r="AE33" s="60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1" spans="1:31">
       <c r="A34" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B34" s="48">
         <v>25</v>
       </c>
       <c r="C34" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="D34" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="H34" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="I34" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="K34" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="L34" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="D34" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="F34" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="H34" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="I34" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="J34" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="K34" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="L34" s="49" t="s">
-        <v>275</v>
-      </c>
       <c r="M34" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N34" s="49" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O34" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P34" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q34" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R34" s="49" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S34" s="49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="T34" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U34" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V34" s="49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W34" s="49">
         <v>341000</v>
@@ -13182,75 +13185,75 @@
         <v>335000</v>
       </c>
       <c r="AE34" s="61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1" spans="1:31">
       <c r="A35" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B35" s="51">
         <v>26</v>
       </c>
       <c r="C35" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F35" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="I35" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="J35" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="K35" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="L35" s="52" t="s">
         <v>282</v>
       </c>
-      <c r="D35" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="F35" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="H35" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="I35" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="J35" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="K35" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="L35" s="52" t="s">
-        <v>281</v>
-      </c>
       <c r="M35" s="52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N35" s="56">
         <v>45692</v>
       </c>
       <c r="O35" s="52" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P35" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q35" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R35" s="52" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="S35" s="52" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="T35" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U35" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V35" s="52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W35" s="52">
         <v>61000</v>
@@ -13277,75 +13280,75 @@
         <v>61000</v>
       </c>
       <c r="AE35" s="60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" ht="13.5" customHeight="1" spans="1:31">
       <c r="A36" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B36" s="48">
         <v>27</v>
       </c>
       <c r="C36" s="49" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D36" s="49" t="s">
         <v>5</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F36" s="49" t="s">
         <v>6</v>
       </c>
       <c r="G36" s="49" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H36" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I36" s="49" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J36" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K36" s="49" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L36" s="49" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M36" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N36" s="49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O36" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P36" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q36" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R36" s="49" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S36" s="49" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="T36" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U36" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V36" s="49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W36" s="49">
         <v>12000</v>
@@ -13372,75 +13375,75 @@
         <v>14000</v>
       </c>
       <c r="AE36" s="61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" ht="13.5" customHeight="1" spans="1:31">
       <c r="A37" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B37" s="51">
         <v>28</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D37" s="52" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F37" s="52" t="s">
         <v>13</v>
       </c>
       <c r="G37" s="52" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H37" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I37" s="52" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J37" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K37" s="52" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L37" s="52" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M37" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N37" s="56">
         <v>45901</v>
       </c>
       <c r="O37" s="52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P37" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q37" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R37" s="52" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="S37" s="52" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="T37" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U37" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V37" s="52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W37" s="52">
         <v>12000</v>
@@ -13467,75 +13470,75 @@
         <v>16000</v>
       </c>
       <c r="AE37" s="60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" ht="13.5" customHeight="1" spans="1:31">
       <c r="A38" s="11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B38" s="48">
         <v>29</v>
       </c>
       <c r="C38" s="49" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D38" s="49" t="s">
         <v>5</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F38" s="49" t="s">
         <v>6</v>
       </c>
       <c r="G38" s="49" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H38" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I38" s="49" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J38" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K38" s="49" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L38" s="49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M38" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N38" s="55">
         <v>45691</v>
       </c>
       <c r="O38" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P38" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q38" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R38" s="49" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="S38" s="49" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="T38" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U38" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V38" s="49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W38" s="49">
         <v>19000</v>
@@ -13562,75 +13565,75 @@
         <v>21000</v>
       </c>
       <c r="AE38" s="61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" ht="13.5" customHeight="1" spans="1:31">
       <c r="A39" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B39" s="51">
         <v>30</v>
       </c>
       <c r="C39" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="H39" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="J39" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="K39" s="52" t="s">
+        <v>308</v>
+      </c>
+      <c r="L39" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="D39" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="52" t="s">
-        <v>140</v>
-      </c>
-      <c r="H39" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="I39" s="52" t="s">
-        <v>216</v>
-      </c>
-      <c r="J39" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="K39" s="52" t="s">
-        <v>307</v>
-      </c>
-      <c r="L39" s="52" t="s">
-        <v>305</v>
-      </c>
       <c r="M39" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N39" s="52" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O39" s="52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P39" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q39" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R39" s="52" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S39" s="52" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T39" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U39" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V39" s="52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W39" s="52">
         <v>92000</v>
@@ -13657,75 +13660,75 @@
         <v>89000</v>
       </c>
       <c r="AE39" s="60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" ht="13.5" customHeight="1" spans="1:31">
       <c r="A40" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B40" s="48">
         <v>31</v>
       </c>
       <c r="C40" s="49" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D40" s="49" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F40" s="49" t="s">
         <v>6</v>
       </c>
       <c r="G40" s="49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H40" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I40" s="49" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J40" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K40" s="49" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L40" s="49" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M40" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N40" s="49" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O40" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P40" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q40" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R40" s="49" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S40" s="49" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="T40" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U40" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V40" s="49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W40" s="49">
         <v>72000</v>
@@ -13752,75 +13755,75 @@
         <v>73000</v>
       </c>
       <c r="AE40" s="61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" ht="13.5" customHeight="1" spans="1:31">
       <c r="A41" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B41" s="51">
         <v>32</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D41" s="52" t="s">
         <v>5</v>
       </c>
       <c r="E41" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F41" s="52" t="s">
         <v>6</v>
       </c>
       <c r="G41" s="52" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H41" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I41" s="52" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J41" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K41" s="52" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L41" s="52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M41" s="52" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N41" s="56">
         <v>45815</v>
       </c>
       <c r="O41" s="52" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P41" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q41" s="52" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R41" s="52" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="S41" s="52" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="T41" s="52" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U41" s="52" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V41" s="52" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W41" s="52">
         <v>96000</v>
@@ -13847,75 +13850,75 @@
         <v>95000</v>
       </c>
       <c r="AE41" s="60" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" ht="13.5" customHeight="1" spans="1:31">
       <c r="A42" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B42" s="48">
         <v>33</v>
       </c>
       <c r="C42" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="F42" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="H42" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="I42" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="J42" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="K42" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="L42" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="D42" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="F42" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" s="49" t="s">
-        <v>228</v>
-      </c>
-      <c r="H42" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="I42" s="49" t="s">
-        <v>325</v>
-      </c>
-      <c r="J42" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="K42" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="L42" s="49" t="s">
-        <v>323</v>
-      </c>
       <c r="M42" s="49" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N42" s="55">
         <v>45688</v>
       </c>
       <c r="O42" s="49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P42" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q42" s="49" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R42" s="49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="S42" s="49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="T42" s="49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U42" s="49" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="V42" s="49" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W42" s="49">
         <v>342000</v>
@@ -13942,7 +13945,7 @@
         <v>326000</v>
       </c>
       <c r="AE42" s="61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" ht="13.5" customHeight="1"/>
@@ -14949,55 +14952,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K1" s="40" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L1" s="40" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M1" s="40" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N1" s="40" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O1" s="40" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P1" s="41" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="R1" s="40" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="S1" s="44"/>
       <c r="T1" s="44"/>
@@ -15013,22 +15016,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H2" s="37">
         <v>53.704</v>
@@ -15052,16 +15055,16 @@
         <v>0</v>
       </c>
       <c r="O2" s="35" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P2" s="43">
         <v>45931</v>
       </c>
       <c r="Q2" s="35" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="R2" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S2" s="44"/>
       <c r="T2" s="44"/>
@@ -15077,22 +15080,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H3" s="37">
         <v>58.334</v>
@@ -15116,16 +15119,16 @@
         <v>0</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P3" s="43">
         <v>45931</v>
       </c>
       <c r="Q3" s="35" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="R3" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
@@ -15141,22 +15144,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H4" s="37">
         <v>29.63</v>
@@ -15180,16 +15183,16 @@
         <v>0</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P4" s="43">
         <v>45931</v>
       </c>
       <c r="Q4" s="35" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="R4" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S4" s="44"/>
       <c r="T4" s="44"/>
@@ -15205,22 +15208,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G5" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H5" s="37">
         <v>43.519</v>
@@ -15244,16 +15247,16 @@
         <v>0</v>
       </c>
       <c r="O5" s="35" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P5" s="43">
         <v>45931</v>
       </c>
       <c r="Q5" s="35" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="R5" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S5" s="44"/>
       <c r="T5" s="44"/>
@@ -15269,22 +15272,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H6" s="37">
         <v>39.815</v>
@@ -15308,16 +15311,16 @@
         <v>0</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P6" s="43">
         <v>45931</v>
       </c>
       <c r="Q6" s="35" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="R6" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S6" s="44"/>
       <c r="T6" s="44"/>
@@ -15333,22 +15336,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H7" s="37">
         <v>40.741</v>
@@ -15372,16 +15375,16 @@
         <v>0</v>
       </c>
       <c r="O7" s="35" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P7" s="43">
         <v>45931</v>
       </c>
       <c r="Q7" s="35" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="R7" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S7" s="44"/>
       <c r="T7" s="44"/>
@@ -15397,22 +15400,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H8" s="37">
         <v>59.26</v>
@@ -15436,16 +15439,16 @@
         <v>0</v>
       </c>
       <c r="O8" s="35" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P8" s="43">
         <v>45931</v>
       </c>
       <c r="Q8" s="35" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="R8" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S8" s="44"/>
       <c r="T8" s="44"/>
@@ -15461,22 +15464,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C9" s="94" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D9" s="38">
         <v>1</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F9" s="39">
         <v>45936</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H9" s="37">
         <v>205.556</v>
@@ -15500,16 +15503,16 @@
         <v>0</v>
       </c>
       <c r="O9" s="37" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P9" s="43">
         <v>45932</v>
       </c>
       <c r="Q9" s="37" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="R9" s="37" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="S9" s="45"/>
       <c r="T9" s="45"/>
@@ -15525,7 +15528,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C10" s="36">
         <v>2745661</v>
@@ -15534,13 +15537,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F10" s="39">
         <v>45936</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H10" s="37">
         <v>216.667</v>
@@ -15564,16 +15567,16 @@
         <v>0</v>
       </c>
       <c r="O10" s="35" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P10" s="43">
         <v>45932</v>
       </c>
       <c r="Q10" s="35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" ht="13.5" customHeight="1" spans="1:18">
@@ -15581,7 +15584,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C11" s="36">
         <v>2745713</v>
@@ -15590,13 +15593,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F11" s="39">
         <v>45936</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H11" s="37">
         <v>60.185</v>
@@ -15620,16 +15623,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="35" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P11" s="43">
         <v>45932</v>
       </c>
       <c r="Q11" s="35" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" ht="13.5" customHeight="1" spans="1:18">
@@ -15637,7 +15640,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C12" s="36">
         <v>2745765</v>
@@ -15646,13 +15649,13 @@
         <v>1</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F12" s="39">
         <v>45936</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H12" s="37">
         <v>59.26</v>
@@ -15676,16 +15679,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P12" s="43">
         <v>45932</v>
       </c>
       <c r="Q12" s="35" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="R12" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" ht="13.5" customHeight="1" spans="1:18">
@@ -15693,7 +15696,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C13" s="36">
         <v>2745817</v>
@@ -15702,13 +15705,13 @@
         <v>1</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F13" s="39">
         <v>45936</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H13" s="37">
         <v>55.556</v>
@@ -15732,16 +15735,16 @@
         <v>0</v>
       </c>
       <c r="O13" s="35" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P13" s="43">
         <v>45932</v>
       </c>
       <c r="Q13" s="35" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" ht="13.5" customHeight="1" spans="1:18">
@@ -15749,7 +15752,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C14" s="36">
         <v>2745868</v>
@@ -15758,13 +15761,13 @@
         <v>1</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F14" s="39">
         <v>45936</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H14" s="37">
         <v>72.223</v>
@@ -15788,16 +15791,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="35" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P14" s="43">
         <v>45932</v>
       </c>
       <c r="Q14" s="35" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" ht="13.5" customHeight="1" spans="1:18">
@@ -15805,7 +15808,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C15" s="36">
         <v>2745920</v>
@@ -15814,13 +15817,13 @@
         <v>1</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F15" s="39">
         <v>45936</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H15" s="37">
         <v>45.371</v>
@@ -15844,16 +15847,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P15" s="43">
         <v>45932</v>
       </c>
       <c r="Q15" s="35" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" ht="13.5" customHeight="1" spans="1:18">
@@ -15861,7 +15864,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C16" s="36">
         <v>2745970</v>
@@ -15870,13 +15873,13 @@
         <v>1</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F16" s="39">
         <v>45936</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H16" s="37">
         <v>67.593</v>
@@ -15900,16 +15903,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P16" s="43">
         <v>45933</v>
       </c>
       <c r="Q16" s="35" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" ht="13.5" customHeight="1" spans="1:18">
@@ -15917,7 +15920,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C17" s="36">
         <v>2746021</v>
@@ -15926,13 +15929,13 @@
         <v>1</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F17" s="39">
         <v>45936</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H17" s="37">
         <v>46.297</v>
@@ -15956,16 +15959,16 @@
         <v>0</v>
       </c>
       <c r="O17" s="35" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P17" s="43">
         <v>45933</v>
       </c>
       <c r="Q17" s="35" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="R17" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1" spans="1:18">
@@ -15973,7 +15976,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C18" s="36">
         <v>2746072</v>
@@ -15982,13 +15985,13 @@
         <v>1</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F18" s="39">
         <v>45936</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H18" s="37">
         <v>64.815</v>
@@ -16012,16 +16015,16 @@
         <v>0</v>
       </c>
       <c r="O18" s="35" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P18" s="43">
         <v>45933</v>
       </c>
       <c r="Q18" s="35" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="R18" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="19" ht="13.5" customHeight="1" spans="1:18">
@@ -16029,7 +16032,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C19" s="36">
         <v>2746123</v>
@@ -16038,13 +16041,13 @@
         <v>1</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F19" s="39">
         <v>45936</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H19" s="37">
         <v>48.148</v>
@@ -16068,16 +16071,16 @@
         <v>0</v>
       </c>
       <c r="O19" s="35" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P19" s="43">
         <v>45933</v>
       </c>
       <c r="Q19" s="35" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="R19" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" ht="13.5" customHeight="1" spans="1:18">
@@ -16085,7 +16088,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C20" s="36">
         <v>2746174</v>
@@ -16094,13 +16097,13 @@
         <v>1</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F20" s="39">
         <v>45936</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H20" s="37">
         <v>26.852</v>
@@ -16124,16 +16127,16 @@
         <v>0</v>
       </c>
       <c r="O20" s="35" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P20" s="43">
         <v>45933</v>
       </c>
       <c r="Q20" s="35" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="R20" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="21" ht="13.5" customHeight="1" spans="1:18">
@@ -16141,7 +16144,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C21" s="36">
         <v>2746224</v>
@@ -16150,13 +16153,13 @@
         <v>1</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F21" s="39">
         <v>45936</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H21" s="37">
         <v>38.889</v>
@@ -16180,16 +16183,16 @@
         <v>0</v>
       </c>
       <c r="O21" s="35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P21" s="43">
         <v>45933</v>
       </c>
       <c r="Q21" s="35" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="R21" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" ht="13.5" customHeight="1" spans="1:18">
@@ -16197,7 +16200,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C22" s="36">
         <v>2746275</v>
@@ -16206,13 +16209,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F22" s="39">
         <v>45936</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H22" s="37">
         <v>187.037</v>
@@ -16236,16 +16239,16 @@
         <v>0</v>
       </c>
       <c r="O22" s="35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P22" s="43">
         <v>45933</v>
       </c>
       <c r="Q22" s="35" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="R22" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" ht="13.5" customHeight="1" spans="1:18">
@@ -16253,7 +16256,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C23" s="36">
         <v>2746325</v>
@@ -16262,13 +16265,13 @@
         <v>1</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F23" s="39">
         <v>45936</v>
       </c>
       <c r="G23" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H23" s="37">
         <v>231.482</v>
@@ -16292,16 +16295,16 @@
         <v>0</v>
       </c>
       <c r="O23" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P23" s="43">
         <v>45933</v>
       </c>
       <c r="Q23" s="35" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="R23" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" ht="13.5" customHeight="1" spans="1:18">
@@ -16309,7 +16312,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C24" s="36">
         <v>2746374</v>
@@ -16318,13 +16321,13 @@
         <v>1</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F24" s="39">
         <v>45936</v>
       </c>
       <c r="G24" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H24" s="37">
         <v>64.815</v>
@@ -16348,16 +16351,16 @@
         <v>0</v>
       </c>
       <c r="O24" s="35" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P24" s="43">
         <v>45933</v>
       </c>
       <c r="Q24" s="35" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="R24" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" ht="13.5" customHeight="1" spans="1:18">
@@ -16365,7 +16368,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C25" s="36">
         <v>2746425</v>
@@ -16374,13 +16377,13 @@
         <v>1</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F25" s="39">
         <v>45936</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H25" s="37">
         <v>98.149</v>
@@ -16404,16 +16407,16 @@
         <v>0</v>
       </c>
       <c r="O25" s="35" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P25" s="43">
         <v>45933</v>
       </c>
       <c r="Q25" s="35" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="R25" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" ht="13.5" customHeight="1" spans="1:18">
@@ -16421,7 +16424,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C26" s="36">
         <v>2746476</v>
@@ -16430,13 +16433,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F26" s="39">
         <v>45936</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H26" s="37">
         <v>310.185</v>
@@ -16460,16 +16463,16 @@
         <v>0</v>
       </c>
       <c r="O26" s="35" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P26" s="43">
         <v>45934</v>
       </c>
       <c r="Q26" s="35" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="R26" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="27" ht="13.5" customHeight="1" spans="1:18">
@@ -16477,7 +16480,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C27" s="36">
         <v>2746526</v>
@@ -16486,13 +16489,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F27" s="39">
         <v>45936</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H27" s="37">
         <v>56.482</v>
@@ -16516,16 +16519,16 @@
         <v>0</v>
       </c>
       <c r="O27" s="35" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P27" s="43">
         <v>45934</v>
       </c>
       <c r="Q27" s="35" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="R27" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" ht="13.5" customHeight="1" spans="1:18">
@@ -16533,7 +16536,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C28" s="36">
         <v>2746574</v>
@@ -16542,13 +16545,13 @@
         <v>1</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F28" s="39">
         <v>45936</v>
       </c>
       <c r="G28" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H28" s="37">
         <v>12.963</v>
@@ -16572,16 +16575,16 @@
         <v>0</v>
       </c>
       <c r="O28" s="35" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P28" s="43">
         <v>45934</v>
       </c>
       <c r="Q28" s="35" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="R28" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" ht="13.5" customHeight="1" spans="1:18">
@@ -16589,7 +16592,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C29" s="36">
         <v>2746673</v>
@@ -16598,13 +16601,13 @@
         <v>1</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F29" s="39">
         <v>45936</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H29" s="37">
         <v>19.445</v>
@@ -16628,16 +16631,16 @@
         <v>0</v>
       </c>
       <c r="O29" s="35" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P29" s="43">
         <v>45934</v>
       </c>
       <c r="Q29" s="35" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="R29" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" ht="13.5" customHeight="1" spans="1:18">
@@ -16645,7 +16648,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C30" s="36">
         <v>2746623</v>
@@ -16654,13 +16657,13 @@
         <v>1</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F30" s="39">
         <v>45936</v>
       </c>
       <c r="G30" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H30" s="37">
         <v>14.815</v>
@@ -16684,16 +16687,16 @@
         <v>0</v>
       </c>
       <c r="O30" s="35" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P30" s="43">
         <v>45934</v>
       </c>
       <c r="Q30" s="35" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="R30" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="31" ht="13.5" customHeight="1" spans="1:18">
@@ -16701,7 +16704,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C31" s="36">
         <v>2746721</v>
@@ -16710,13 +16713,13 @@
         <v>1</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F31" s="39">
         <v>45936</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H31" s="37">
         <v>82.408</v>
@@ -16740,16 +16743,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="35" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P31" s="43">
         <v>45934</v>
       </c>
       <c r="Q31" s="35" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="R31" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" ht="13.5" customHeight="1" spans="1:18">
@@ -16757,7 +16760,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C32" s="36">
         <v>2746771</v>
@@ -16766,13 +16769,13 @@
         <v>1</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F32" s="39">
         <v>45936</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H32" s="37">
         <v>67.593</v>
@@ -16796,16 +16799,16 @@
         <v>0</v>
       </c>
       <c r="O32" s="35" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P32" s="43">
         <v>45934</v>
       </c>
       <c r="Q32" s="35" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="R32" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" ht="13.5" customHeight="1" spans="1:18">
@@ -16813,7 +16816,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C33" s="36">
         <v>2746872</v>
@@ -16822,13 +16825,13 @@
         <v>1</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F33" s="39">
         <v>45936</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H33" s="37">
         <v>301.852</v>
@@ -16852,16 +16855,16 @@
         <v>0</v>
       </c>
       <c r="O33" s="35" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P33" s="43">
         <v>45934</v>
       </c>
       <c r="Q33" s="35" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="R33" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="34" ht="13.5" customHeight="1" spans="1:18">
@@ -16869,7 +16872,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C34" s="36">
         <v>2746821</v>
@@ -16878,13 +16881,13 @@
         <v>1</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F34" s="39">
         <v>45936</v>
       </c>
       <c r="G34" s="35" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H34" s="37">
         <v>87.963</v>
@@ -16908,33 +16911,33 @@
         <v>0</v>
       </c>
       <c r="O34" s="35" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P34" s="43">
         <v>45934</v>
       </c>
       <c r="Q34" s="35" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="R34" s="35" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" ht="13.5" customHeight="1" spans="1:14">
       <c r="A35" s="35" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H35" s="37" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I35" s="37">
         <v>229.396</v>
       </c>
       <c r="J35" s="37" t="s">
+        <v>427</v>
+      </c>
+      <c r="K35" s="42" t="s">
         <v>426</v>
-      </c>
-      <c r="K35" s="42" t="s">
-        <v>425</v>
       </c>
       <c r="L35" s="37">
         <v>229.396</v>
@@ -17997,10 +18000,10 @@
     <row r="1" ht="13.5" customHeight="1" spans="1:19">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -18022,7 +18025,7 @@
     <row r="2" ht="13.5" customHeight="1" spans="1:19">
       <c r="A2" s="5"/>
       <c r="B2" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="4"/>
@@ -18045,7 +18048,7 @@
     <row r="3" ht="13.5" customHeight="1" spans="1:19">
       <c r="A3" s="5"/>
       <c r="B3" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -18063,10 +18066,10 @@
     <row r="4" ht="13.5" customHeight="1" spans="1:19">
       <c r="A4" s="5"/>
       <c r="B4" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -18088,10 +18091,10 @@
     <row r="5" ht="13.5" customHeight="1" spans="1:19">
       <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>432</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>431</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -18112,7 +18115,7 @@
     </row>
     <row r="6" ht="13.5" customHeight="1" spans="1:19">
       <c r="A6" s="95" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -18135,40 +18138,40 @@
     </row>
     <row r="7" ht="13.5" customHeight="1" spans="1:19">
       <c r="A7" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
@@ -18183,7 +18186,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="12" t="str">
         <f>VLOOKUP(B8,Report!A:D,4,0)</f>
@@ -18241,7 +18244,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C9" s="12" t="str">
         <f>VLOOKUP(B9,Report!A:D,4,0)</f>
@@ -18299,7 +18302,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" s="12" t="str">
         <f>VLOOKUP(B10,Report!A:D,4,0)</f>
@@ -18357,7 +18360,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C11" s="12" t="str">
         <f>VLOOKUP(B11,Report!A:D,4,0)</f>
@@ -18415,7 +18418,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C12" s="12" t="str">
         <f>VLOOKUP(B12,Report!A:D,4,0)</f>
@@ -18473,7 +18476,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C13" s="12" t="str">
         <f>VLOOKUP(B13,Report!A:D,4,0)</f>
@@ -18531,7 +18534,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" s="12" t="str">
         <f>VLOOKUP(B14,Report!A:D,4,0)</f>
@@ -18589,7 +18592,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C15" s="12" t="str">
         <f>VLOOKUP(B15,Report!A:D,4,0)</f>
@@ -18647,7 +18650,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="12" t="str">
         <f>VLOOKUP(B16,Report!A:D,4,0)</f>
@@ -18705,7 +18708,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C17" s="12" t="str">
         <f>VLOOKUP(B17,Report!A:D,4,0)</f>
@@ -18763,7 +18766,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="12" t="str">
         <f>VLOOKUP(B18,Report!A:D,4,0)</f>
@@ -18821,7 +18824,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="12" t="str">
         <f>VLOOKUP(B19,Report!A:D,4,0)</f>
@@ -18879,7 +18882,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C20" s="12" t="str">
         <f>VLOOKUP(B20,Report!A:D,4,0)</f>
@@ -18937,7 +18940,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C21" s="12" t="str">
         <f>VLOOKUP(B21,Report!A:D,4,0)</f>
@@ -18995,7 +18998,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C22" s="12" t="str">
         <f>VLOOKUP(B22,Report!A:D,4,0)</f>
@@ -19053,7 +19056,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C23" s="12" t="str">
         <f>VLOOKUP(B23,Report!A:D,4,0)</f>
@@ -19111,7 +19114,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C24" s="12" t="str">
         <f>VLOOKUP(B24,Report!A:D,4,0)</f>
@@ -19169,7 +19172,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C25" s="12" t="str">
         <f>VLOOKUP(B25,Report!A:D,4,0)</f>
@@ -19227,7 +19230,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C26" s="12" t="str">
         <f>VLOOKUP(B26,Report!A:D,4,0)</f>
@@ -19285,7 +19288,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C27" s="12" t="str">
         <f>VLOOKUP(B27,Report!A:D,4,0)</f>
@@ -19343,7 +19346,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C28" s="12" t="str">
         <f>VLOOKUP(B28,Report!A:D,4,0)</f>
@@ -19401,7 +19404,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C29" s="12" t="str">
         <f>VLOOKUP(B29,Report!A:D,4,0)</f>
@@ -19459,7 +19462,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C30" s="12" t="str">
         <f>VLOOKUP(B30,Report!A:D,4,0)</f>
@@ -19517,7 +19520,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C31" s="12" t="str">
         <f>VLOOKUP(B31,Report!A:D,4,0)</f>
@@ -19575,7 +19578,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C32" s="12" t="str">
         <f>VLOOKUP(B32,Report!A:D,4,0)</f>
@@ -19633,7 +19636,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C33" s="12" t="str">
         <f>VLOOKUP(B33,Report!A:D,4,0)</f>
@@ -19691,7 +19694,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C34" s="12" t="str">
         <f>VLOOKUP(B34,Report!A:D,4,0)</f>
@@ -19749,7 +19752,7 @@
         <v>28</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C35" s="12" t="str">
         <f>VLOOKUP(B35,Report!A:D,4,0)</f>
@@ -19807,7 +19810,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C36" s="12" t="str">
         <f>VLOOKUP(B36,Report!A:D,4,0)</f>
@@ -19865,7 +19868,7 @@
         <v>30</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C37" s="12" t="str">
         <f>VLOOKUP(B37,Report!A:D,4,0)</f>
@@ -19923,7 +19926,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C38" s="12" t="str">
         <f>VLOOKUP(B38,Report!A:D,4,0)</f>
@@ -19981,7 +19984,7 @@
         <v>32</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C39" s="12" t="str">
         <f>VLOOKUP(B39,Report!A:D,4,0)</f>
@@ -20039,7 +20042,7 @@
         <v>33</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C40" s="20" t="str">
         <f>VLOOKUP(B40,Report!A:D,4,0)</f>
@@ -20102,7 +20105,7 @@
       <c r="G41" s="23"/>
       <c r="H41" s="24"/>
       <c r="I41" s="31" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J41" s="32">
         <f>SUM(J8:J40)</f>

--- a/FileMau/Tong hop _ Report.xlsx
+++ b/FileMau/Tong hop _ Report.xlsx
@@ -2794,12 +2794,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="Report-style" pivot="0" count="3" xr9:uid="{564FB440-5A4A-485D-B7F0-D32FDC5D1F63}">
+    <tableStyle name="Report-style" pivot="0" count="3" xr9:uid="{1A68CB3B-B1AA-4A85-84C2-2D6AE8D0A160}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Report-style 2" pivot="0" count="2" xr9:uid="{7D5036A1-31E3-4D96-8F98-2804754FE0DF}">
+    <tableStyle name="Report-style 2" pivot="0" count="2" xr9:uid="{B7D7E94A-EB14-452C-BCC3-B47104AE8087}">
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
@@ -3060,7 +3060,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15" customHeight="1"/>
@@ -3311,8 +3311,8 @@
       <c r="C7" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="75" t="s">
-        <v>7</v>
+      <c r="D7" s="73" t="s">
+        <v>16</v>
       </c>
       <c r="E7" s="79" t="s">
         <v>21</v>
@@ -3387,8 +3387,8 @@
       <c r="C9" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="69" t="s">
-        <v>11</v>
+      <c r="D9" s="73" t="s">
+        <v>16</v>
       </c>
       <c r="E9" s="82" t="s">
         <v>27</v>
@@ -3533,8 +3533,8 @@
       <c r="C13" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="75" t="s">
-        <v>11</v>
+      <c r="D13" s="73" t="s">
+        <v>16</v>
       </c>
       <c r="E13" s="70" t="s">
         <v>34</v>
@@ -3751,8 +3751,8 @@
       <c r="C19" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="84" t="s">
-        <v>7</v>
+      <c r="D19" s="73" t="s">
+        <v>16</v>
       </c>
       <c r="E19" s="82" t="s">
         <v>43</v>
@@ -3828,7 +3828,7 @@
         <v>49</v>
       </c>
       <c r="D21" s="73" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E21" s="79" t="s">
         <v>50</v>
@@ -3865,8 +3865,8 @@
       <c r="C22" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="75" t="s">
-        <v>7</v>
+      <c r="D22" s="73" t="s">
+        <v>16</v>
       </c>
       <c r="E22" s="88" t="s">
         <v>53</v>
@@ -3904,7 +3904,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="73" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E23" s="92" t="s">
         <v>56</v>
@@ -10317,7 +10317,6 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D18" r:id="rId1" display="nmhien3007@gmail.com"/>
-    <hyperlink ref="D22" r:id="rId1" display="nmhien3007@gmail.com"/>
     <hyperlink ref="D4" r:id="rId2" display="quynhttp4@fe.edu.vn" tooltip="mailto:quynhttp4@fe.edu.vn"/>
     <hyperlink ref="D6" r:id="rId1" display="nmhien3007@gmail.com"/>
     <hyperlink ref="D10" r:id="rId1" display="nmhien3007@gmail.com"/>
@@ -10328,14 +10327,16 @@
     <hyperlink ref="D20" r:id="rId1" display="nmhien3007@gmail.com"/>
     <hyperlink ref="D15" r:id="rId3" display="locth5@fe.edu.vn" tooltip="mailto:locth5@fe.edu.vn"/>
     <hyperlink ref="D2" r:id="rId1" display="nmhien3007@gmail.com" tooltip="mailto:nmhien3007@gmail.com"/>
-    <hyperlink ref="D13" r:id="rId3" display="locth5@fe.edu.vn" tooltip="mailto:locth5@fe.edu.vn"/>
-    <hyperlink ref="D9" r:id="rId1" display="locth5@fe.edu.vn"/>
     <hyperlink ref="D5" r:id="rId4" display="Lientt3@fe.edu.vn" tooltip="mailto:Lientt3@fe.edu.vn"/>
     <hyperlink ref="D11" r:id="rId5" display="hiennm22@fe.edu.vn"/>
-    <hyperlink ref="D21" r:id="rId5" display="hiennm22@fe.edu.vn"/>
-    <hyperlink ref="D23" r:id="rId5" display="hiennm22@fe.edu.vn"/>
-    <hyperlink ref="D7" r:id="rId1" display="nmhien3007@gmail.com"/>
     <hyperlink ref="D3" r:id="rId3" display="locth5@fe.edu.vn"/>
+    <hyperlink ref="D7" r:id="rId4" display="Lientt3@fe.edu.vn" tooltip="mailto:Lientt3@fe.edu.vn"/>
+    <hyperlink ref="D9" r:id="rId4" display="Lientt3@fe.edu.vn" tooltip="mailto:Lientt3@fe.edu.vn"/>
+    <hyperlink ref="D13" r:id="rId4" display="Lientt3@fe.edu.vn" tooltip="mailto:Lientt3@fe.edu.vn"/>
+    <hyperlink ref="D19" r:id="rId4" display="Lientt3@fe.edu.vn" tooltip="mailto:Lientt3@fe.edu.vn"/>
+    <hyperlink ref="D21" r:id="rId4" display="Lientt3@fe.edu.vn" tooltip="mailto:Lientt3@fe.edu.vn"/>
+    <hyperlink ref="D22" r:id="rId4" display="Lientt3@fe.edu.vn" tooltip="mailto:Lientt3@fe.edu.vn"/>
+    <hyperlink ref="D23" r:id="rId4" display="Lientt3@fe.edu.vn" tooltip="mailto:Lientt3@fe.edu.vn"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/FileMau/Tong hop _ Report.xlsx
+++ b/FileMau/Tong hop _ Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12180"/>
+    <workbookView windowWidth="27945" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -2794,12 +2794,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2">
-    <tableStyle name="Report-style" pivot="0" count="3" xr9:uid="{1A68CB3B-B1AA-4A85-84C2-2D6AE8D0A160}">
+    <tableStyle name="Report-style" pivot="0" count="3" xr9:uid="{2A45305C-7EF2-4671-8F9E-62A43B01C5C1}">
       <tableStyleElement type="headerRow" dxfId="2"/>
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Report-style 2" pivot="0" count="2" xr9:uid="{B7D7E94A-EB14-452C-BCC3-B47104AE8087}">
+    <tableStyle name="Report-style 2" pivot="0" count="2" xr9:uid="{30D69D75-C5AB-4E13-B58D-EE8539ADC11C}">
       <tableStyleElement type="firstRowStripe" dxfId="4"/>
       <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
@@ -3060,7 +3060,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="15" customHeight="1"/>
@@ -3349,8 +3349,8 @@
       <c r="C8" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="75" t="s">
-        <v>7</v>
+      <c r="D8" s="73" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="80" t="s">
         <v>24</v>
@@ -3789,8 +3789,8 @@
       <c r="C20" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="75" t="s">
-        <v>7</v>
+      <c r="D20" s="73" t="s">
+        <v>16</v>
       </c>
       <c r="E20" s="80" t="s">
         <v>47</v>
@@ -10321,10 +10321,8 @@
     <hyperlink ref="D6" r:id="rId1" display="nmhien3007@gmail.com"/>
     <hyperlink ref="D10" r:id="rId1" display="nmhien3007@gmail.com"/>
     <hyperlink ref="D14" r:id="rId3" display="locth5@fe.edu.vn" tooltip="mailto:locth5@fe.edu.vn"/>
-    <hyperlink ref="D8" r:id="rId1" display="nmhien3007@gmail.com"/>
     <hyperlink ref="D12" r:id="rId3" display="locth5@fe.edu.vn" tooltip="mailto:locth5@fe.edu.vn"/>
     <hyperlink ref="D16" r:id="rId3" display="locth5@fe.edu.vn" tooltip="mailto:locth5@fe.edu.vn"/>
-    <hyperlink ref="D20" r:id="rId1" display="nmhien3007@gmail.com"/>
     <hyperlink ref="D15" r:id="rId3" display="locth5@fe.edu.vn" tooltip="mailto:locth5@fe.edu.vn"/>
     <hyperlink ref="D2" r:id="rId1" display="nmhien3007@gmail.com" tooltip="mailto:nmhien3007@gmail.com"/>
     <hyperlink ref="D5" r:id="rId4" display="Lientt3@fe.edu.vn" tooltip="mailto:Lientt3@fe.edu.vn"/>
@@ -10337,6 +10335,8 @@
     <hyperlink ref="D21" r:id="rId4" display="Lientt3@fe.edu.vn" tooltip="mailto:Lientt3@fe.edu.vn"/>
     <hyperlink ref="D22" r:id="rId4" display="Lientt3@fe.edu.vn" tooltip="mailto:Lientt3@fe.edu.vn"/>
     <hyperlink ref="D23" r:id="rId4" display="Lientt3@fe.edu.vn" tooltip="mailto:Lientt3@fe.edu.vn"/>
+    <hyperlink ref="D20" r:id="rId4" display="Lientt3@fe.edu.vn" tooltip="mailto:Lientt3@fe.edu.vn"/>
+    <hyperlink ref="D8" r:id="rId4" display="Lientt3@fe.edu.vn" tooltip="mailto:Lientt3@fe.edu.vn"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="1" orientation="portrait"/>
